--- a/data/trans_orig/P22_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P22_R-Provincia-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10780</v>
+        <v>11474</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01213067595537439</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0396215156850977</v>
+        <v>0.04217057101945228</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10951</v>
+        <v>10584</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006193314378142126</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02054817816890131</v>
+        <v>0.01986032279699913</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>15130</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8648</v>
+        <v>8922</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23579</v>
+        <v>25168</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05560649894394062</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03178290708325868</v>
+        <v>0.03279030907645128</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08666165060119328</v>
+        <v>0.09250170764665942</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -828,19 +828,19 @@
         <v>13202</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7094</v>
+        <v>6829</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22457</v>
+        <v>22499</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05061309149943636</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0271981021093201</v>
+        <v>0.02617969052441519</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08609713001026735</v>
+        <v>0.0862564600010039</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -849,19 +849,19 @@
         <v>28331</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19472</v>
+        <v>19665</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41146</v>
+        <v>41021</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05316247475192269</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03653910654228083</v>
+        <v>0.0369005602795788</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07720875754756293</v>
+        <v>0.07697440606329055</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>19153</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12452</v>
+        <v>12290</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29806</v>
+        <v>29688</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07039552441208334</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04576640742182084</v>
+        <v>0.0451696547980466</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.109547963838142</v>
+        <v>0.1091140350889452</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -899,19 +899,19 @@
         <v>9408</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4400</v>
+        <v>4347</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17300</v>
+        <v>17641</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03607017641892434</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01686975402071206</v>
+        <v>0.01666509024502873</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06632387202311874</v>
+        <v>0.06763019002416529</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -920,19 +920,19 @@
         <v>28562</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>19357</v>
+        <v>19396</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>40302</v>
+        <v>40031</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05359497652427862</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03632195200811182</v>
+        <v>0.03639570558980099</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07562471808202628</v>
+        <v>0.07511680688906033</v>
       </c>
     </row>
     <row r="7">
@@ -949,19 +949,19 @@
         <v>234499</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>222089</v>
+        <v>219946</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>245391</v>
+        <v>244713</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8618673006886016</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8162547288558423</v>
+        <v>0.8083771684214399</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9018971793844865</v>
+        <v>0.8994062438220953</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>225</v>
@@ -970,19 +970,19 @@
         <v>238228</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>227290</v>
+        <v>226506</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>246707</v>
+        <v>246478</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9133167320816393</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8713838515524409</v>
+        <v>0.8683764487488542</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9458249570623186</v>
+        <v>0.9449460157136184</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>458</v>
@@ -991,19 +991,19 @@
         <v>472727</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>455831</v>
+        <v>455704</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>486424</v>
+        <v>486146</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8870492343456565</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.855343635812287</v>
+        <v>0.8551058705614569</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9127510149608742</v>
+        <v>0.9122283601331052</v>
       </c>
     </row>
     <row r="8">
@@ -1142,19 +1142,19 @@
         <v>28473</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18587</v>
+        <v>18226</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42411</v>
+        <v>41916</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05774600130754944</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03769708833127134</v>
+        <v>0.03696418268064469</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08601312694182085</v>
+        <v>0.08500957155108047</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>12378</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6345</v>
+        <v>6774</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20750</v>
+        <v>21308</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02456171890387361</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01258976947956016</v>
+        <v>0.01344181604864724</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04117488018974828</v>
+        <v>0.04228227481175625</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>35</v>
@@ -1184,19 +1184,19 @@
         <v>40851</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27338</v>
+        <v>28959</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54974</v>
+        <v>56572</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04097289947781811</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02741970902961323</v>
+        <v>0.0290452118226085</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05513765697109326</v>
+        <v>0.05674096332651019</v>
       </c>
     </row>
     <row r="11">
@@ -1213,19 +1213,19 @@
         <v>20075</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12374</v>
+        <v>12620</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30078</v>
+        <v>30222</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04071304691950718</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02509569496178045</v>
+        <v>0.0255941480387511</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06100068577864669</v>
+        <v>0.06129371148164728</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -1234,19 +1234,19 @@
         <v>22117</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14176</v>
+        <v>14364</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>32591</v>
+        <v>32542</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04388768056551309</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02812970518856473</v>
+        <v>0.02850249810678833</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06467111855845389</v>
+        <v>0.06457305058771959</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>40</v>
@@ -1255,19 +1255,19 @@
         <v>42192</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29505</v>
+        <v>31395</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>56509</v>
+        <v>57810</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04231767566418812</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02959321310751513</v>
+        <v>0.03148898830961234</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05667724148575586</v>
+        <v>0.05798215213654783</v>
       </c>
     </row>
     <row r="12">
@@ -1284,19 +1284,19 @@
         <v>444527</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>428745</v>
+        <v>430084</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>457003</v>
+        <v>457487</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9015409517729434</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8695320726408204</v>
+        <v>0.8722487522735347</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9268435389866203</v>
+        <v>0.9278253701287011</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>466</v>
@@ -1305,19 +1305,19 @@
         <v>469454</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>457587</v>
+        <v>455857</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>480141</v>
+        <v>480052</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9315506005306133</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.908002226958224</v>
+        <v>0.9045689510427193</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9527568356481511</v>
+        <v>0.9525805731656127</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>889</v>
@@ -1326,19 +1326,19 @@
         <v>913981</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>893760</v>
+        <v>894456</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>931323</v>
+        <v>930903</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9167094248579938</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8964276263119513</v>
+        <v>0.8971257883643806</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9341024417463475</v>
+        <v>0.9336813538248122</v>
       </c>
     </row>
     <row r="13">
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5778</v>
+        <v>5181</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003251903974729461</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01812156739426848</v>
+        <v>0.01624967138426269</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5791</v>
+        <v>5183</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001584782187098365</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.008851435089423184</v>
+        <v>0.007922279009704367</v>
       </c>
     </row>
     <row r="15">
@@ -1493,19 +1493,19 @@
         <v>10135</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5059</v>
+        <v>5388</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>18488</v>
+        <v>17861</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0317869595610743</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01586797029261752</v>
+        <v>0.01689711796234402</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05798362502991852</v>
+        <v>0.05601847081901744</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>5</v>
@@ -1514,19 +1514,19 @@
         <v>4845</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1898</v>
+        <v>1847</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10797</v>
+        <v>10827</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01444375705375177</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0056601530798128</v>
+        <v>0.005505852444125264</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03218979955219713</v>
+        <v>0.03228108842229683</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>15</v>
@@ -1535,19 +1535,19 @@
         <v>14980</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>8518</v>
+        <v>9019</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>24095</v>
+        <v>24378</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02289578965201785</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01301974342348723</v>
+        <v>0.0137844186481107</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03682782388210448</v>
+        <v>0.03726121923745346</v>
       </c>
     </row>
     <row r="16">
@@ -1564,19 +1564,19 @@
         <v>9454</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4753</v>
+        <v>4474</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17701</v>
+        <v>17670</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02965187667121837</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01490543033294844</v>
+        <v>0.01403158489259296</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05551739190849016</v>
+        <v>0.0554177079040479</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1585,19 +1585,19 @@
         <v>7546</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2814</v>
+        <v>3543</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13711</v>
+        <v>14734</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02249744334397455</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00839096494585472</v>
+        <v>0.01056319848985349</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04087928708386464</v>
+        <v>0.04392950376714459</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1606,19 +1606,19 @@
         <v>17000</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10266</v>
+        <v>10294</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27535</v>
+        <v>27695</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02598408335053937</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01569131079403299</v>
+        <v>0.01573323335713478</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04208652188324544</v>
+        <v>0.04233088260574805</v>
       </c>
     </row>
     <row r="17">
@@ -1635,19 +1635,19 @@
         <v>298220</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>288021</v>
+        <v>288555</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>305672</v>
+        <v>305657</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9353092597929779</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9033218961344217</v>
+        <v>0.9049976890153888</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9586834351421931</v>
+        <v>0.9586356152235825</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>322</v>
@@ -1656,19 +1656,19 @@
         <v>323021</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>315353</v>
+        <v>314132</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>328765</v>
+        <v>328742</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9630587996022737</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9401962684042665</v>
+        <v>0.9365561180520905</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9801812223668722</v>
+        <v>0.9801126534748799</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>612</v>
@@ -1677,19 +1677,19 @@
         <v>621241</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>609311</v>
+        <v>607691</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>631489</v>
+        <v>630909</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9495353448103444</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9313006175813254</v>
+        <v>0.9288244429990294</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.965198277319482</v>
+        <v>0.9643128016469835</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>7582</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2990</v>
+        <v>3027</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15474</v>
+        <v>14930</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02126636163950774</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008387990452000718</v>
+        <v>0.008490034233073417</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04340395291082551</v>
+        <v>0.04187629130608583</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -1849,19 +1849,19 @@
         <v>15602</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9272</v>
+        <v>8672</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>24677</v>
+        <v>24963</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0420986613955899</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02501813733398809</v>
+        <v>0.02339838396069929</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0665852925796251</v>
+        <v>0.06735543975504218</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>23</v>
@@ -1870,19 +1870,19 @@
         <v>23184</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>15451</v>
+        <v>15352</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>33461</v>
+        <v>34334</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03188440374890095</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02124910816755438</v>
+        <v>0.02111334482949349</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04601801811458207</v>
+        <v>0.0472183355449767</v>
       </c>
     </row>
     <row r="21">
@@ -1899,19 +1899,19 @@
         <v>22444</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13177</v>
+        <v>14148</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>34072</v>
+        <v>34554</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06295248809040421</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03696126769125644</v>
+        <v>0.03968367612926649</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09556829524593116</v>
+        <v>0.09692233603962619</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -1920,19 +1920,19 @@
         <v>12509</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6850</v>
+        <v>6833</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>20489</v>
+        <v>20334</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03375301228001136</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01848189638626787</v>
+        <v>0.01843628897490271</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05528590037711707</v>
+        <v>0.05486693743521411</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>34</v>
@@ -1941,19 +1941,19 @@
         <v>34953</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>24775</v>
+        <v>24886</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>47422</v>
+        <v>48668</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04806976907439924</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03407244332130441</v>
+        <v>0.03422581041089107</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06521920330229089</v>
+        <v>0.06693219977759715</v>
       </c>
     </row>
     <row r="22">
@@ -1970,19 +1970,19 @@
         <v>326490</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>313148</v>
+        <v>313595</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>335978</v>
+        <v>336141</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.915781150270088</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8783593235510213</v>
+        <v>0.8796136626448045</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9423944422449588</v>
+        <v>0.9428536516126248</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>354</v>
@@ -1991,19 +1991,19 @@
         <v>342498</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>331146</v>
+        <v>330874</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>350863</v>
+        <v>351714</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9241483263243987</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8935178973164947</v>
+        <v>0.8927841582351052</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.946719127225114</v>
+        <v>0.9490155261028279</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>686</v>
@@ -2012,19 +2012,19 @@
         <v>668987</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>653415</v>
+        <v>652328</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>682883</v>
+        <v>682499</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9200458271766998</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8986290964978989</v>
+        <v>0.8971339281574441</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9391567136167729</v>
+        <v>0.9386277293950811</v>
       </c>
     </row>
     <row r="23">
@@ -2163,19 +2163,19 @@
         <v>32760</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23483</v>
+        <v>23386</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44681</v>
+        <v>44973</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1611342119456629</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1155054965048684</v>
+        <v>0.1150257320770886</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2197696873571337</v>
+        <v>0.2212073042813216</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -2184,19 +2184,19 @@
         <v>28942</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20672</v>
+        <v>19799</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>40125</v>
+        <v>39343</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1393679314924068</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09954340840038411</v>
+        <v>0.09534010844196013</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1932156374293109</v>
+        <v>0.1894528872029283</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>61</v>
@@ -2205,19 +2205,19 @@
         <v>61702</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>48218</v>
+        <v>48777</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>77650</v>
+        <v>78008</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1501356148907123</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1173246339039817</v>
+        <v>0.1186859650793314</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1889395379428453</v>
+        <v>0.1898105661543527</v>
       </c>
     </row>
     <row r="26">
@@ -2234,19 +2234,19 @@
         <v>9570</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4741</v>
+        <v>4973</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18322</v>
+        <v>18351</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04707148251066731</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02331760688920832</v>
+        <v>0.02446153148614783</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09012005622183175</v>
+        <v>0.09026396948931201</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -2255,19 +2255,19 @@
         <v>15563</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8951</v>
+        <v>9124</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25036</v>
+        <v>25941</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07494310180151331</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04310433821305718</v>
+        <v>0.04393607255598753</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1205582175247435</v>
+        <v>0.1249150341487841</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>24</v>
@@ -2276,19 +2276,19 @@
         <v>25133</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>16103</v>
+        <v>16622</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>36430</v>
+        <v>36923</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06115513407930936</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03918293824522506</v>
+        <v>0.04044626394640725</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08864381425864203</v>
+        <v>0.08984136045138974</v>
       </c>
     </row>
     <row r="27">
@@ -2305,19 +2305,19 @@
         <v>160978</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>148574</v>
+        <v>149043</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>171147</v>
+        <v>171604</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7917943055436698</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7307805031929473</v>
+        <v>0.7330900825907201</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8418108655848353</v>
+        <v>0.8440575373354654</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>154</v>
@@ -2326,19 +2326,19 @@
         <v>163162</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>150457</v>
+        <v>151315</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>173880</v>
+        <v>173799</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7856889667060799</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7245067620062877</v>
+        <v>0.7286410243562732</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8372995108304155</v>
+        <v>0.8369071101577474</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>319</v>
@@ -2347,19 +2347,19 @@
         <v>324141</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>305774</v>
+        <v>306512</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>340087</v>
+        <v>339801</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.7887092510299784</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7440201579972697</v>
+        <v>0.7458147905147302</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8275096299926762</v>
+        <v>0.8268154775644767</v>
       </c>
     </row>
     <row r="28">
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9880</v>
+        <v>9685</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01027850058822508</v>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03648137275037021</v>
+        <v>0.03576184621146841</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -2519,19 +2519,19 @@
         <v>3000</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>8004</v>
+        <v>8109</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0107861925750712</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.003422381288008338</v>
+        <v>0.00343401099177166</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02877812068263041</v>
+        <v>0.02915273428772895</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5</v>
@@ -2540,19 +2540,19 @@
         <v>5784</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2045</v>
+        <v>2000</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>12883</v>
+        <v>12279</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01053573748188853</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.003725651345589628</v>
+        <v>0.003642437397694021</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02346747052536612</v>
+        <v>0.02236791011148243</v>
       </c>
     </row>
     <row r="31">
@@ -2569,19 +2569,19 @@
         <v>16195</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>10078</v>
+        <v>9965</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>26157</v>
+        <v>25391</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05980253701647833</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03721491438829233</v>
+        <v>0.03679587333909903</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09658633508091527</v>
+        <v>0.09376029915620399</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>9</v>
@@ -2590,19 +2590,19 @@
         <v>9137</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4264</v>
+        <v>4143</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>16771</v>
+        <v>16540</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03285044305417642</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01533144904064633</v>
+        <v>0.0148964544906548</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06029777880943843</v>
+        <v>0.05946404568299785</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>25</v>
@@ -2611,19 +2611,19 @@
         <v>25332</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>15824</v>
+        <v>17023</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>35759</v>
+        <v>36256</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04614647564813287</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02882537190399829</v>
+        <v>0.03101068031028841</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06514018639079376</v>
+        <v>0.06604618176222707</v>
       </c>
     </row>
     <row r="32">
@@ -2640,19 +2640,19 @@
         <v>251832</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>241301</v>
+        <v>241504</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>258952</v>
+        <v>259064</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9299189623952966</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8910316080386335</v>
+        <v>0.8917793588369952</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9562086437638448</v>
+        <v>0.9566235134847461</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>258</v>
@@ -2661,19 +2661,19 @@
         <v>266007</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>257481</v>
+        <v>257765</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>271334</v>
+        <v>271194</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9563633643707524</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9257122850530281</v>
+        <v>0.9267319352252663</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9755145870060343</v>
+        <v>0.9750135276506371</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>506</v>
@@ -2682,19 +2682,19 @@
         <v>517839</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>506027</v>
+        <v>504974</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>527965</v>
+        <v>527368</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9433177868699786</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9218010015923955</v>
+        <v>0.9198824025162962</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9617643211243504</v>
+        <v>0.9606753072925538</v>
       </c>
     </row>
     <row r="33">
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>8015</v>
+        <v>9646</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.00286985758714244</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01305383129990887</v>
+        <v>0.0157094806549351</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>8834</v>
+        <v>10548</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.001408532204062393</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.007060919102497855</v>
+        <v>0.008431079162056201</v>
       </c>
     </row>
     <row r="35">
@@ -2849,19 +2849,19 @@
         <v>25601</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>17196</v>
+        <v>16480</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>39645</v>
+        <v>38045</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04169366262825711</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02800551804063446</v>
+        <v>0.02683872863762404</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06456561755205943</v>
+        <v>0.06196070316011019</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>28</v>
@@ -2870,19 +2870,19 @@
         <v>29963</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>20276</v>
+        <v>20314</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>42691</v>
+        <v>43078</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04703493071017208</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03182840408920564</v>
+        <v>0.03188767883037753</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06701425079695213</v>
+        <v>0.06762162329503663</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>52</v>
@@ -2891,19 +2891,19 @@
         <v>55564</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>41823</v>
+        <v>41851</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>72526</v>
+        <v>72269</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04441342498193875</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03342988340472286</v>
+        <v>0.03345226816945771</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05797125907079313</v>
+        <v>0.05776569402692466</v>
       </c>
     </row>
     <row r="36">
@@ -2920,19 +2920,19 @@
         <v>15131</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9431</v>
+        <v>9330</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>23536</v>
+        <v>24705</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02464274130194859</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0153588605466597</v>
+        <v>0.01519473099390431</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03833017494751161</v>
+        <v>0.04023445227391741</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>22</v>
@@ -2941,19 +2941,19 @@
         <v>23356</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>14649</v>
+        <v>14703</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>34859</v>
+        <v>34493</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03666381040467025</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02299614622371719</v>
+        <v>0.02308030779628954</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05472076412073329</v>
+        <v>0.0541454506010452</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>38</v>
@@ -2962,19 +2962,19 @@
         <v>38488</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>28346</v>
+        <v>27347</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>54042</v>
+        <v>52392</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03076384413655226</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02265739491446074</v>
+        <v>0.02185873740955785</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04319661311347145</v>
+        <v>0.04187793373129973</v>
       </c>
     </row>
     <row r="37">
@@ -2991,19 +2991,19 @@
         <v>571530</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>555532</v>
+        <v>557277</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>581633</v>
+        <v>583169</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9307937384826519</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9047404913991033</v>
+        <v>0.907581790800924</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9472487786286526</v>
+        <v>0.9497502920808047</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>570</v>
@@ -3012,19 +3012,19 @@
         <v>583720</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>566889</v>
+        <v>568283</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>596541</v>
+        <v>596644</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9163012588851577</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8898805849539693</v>
+        <v>0.8920686502878874</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9364277771055983</v>
+        <v>0.9365892632246111</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1126</v>
@@ -3033,19 +3033,19 @@
         <v>1155249</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1135025</v>
+        <v>1135426</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1172756</v>
+        <v>1174490</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9234141986774466</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9072481588156062</v>
+        <v>0.907568917820311</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9374078625128249</v>
+        <v>0.9387938771351315</v>
       </c>
     </row>
     <row r="38">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>7017</v>
+        <v>6893</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.002540941094504587</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.00895546568744602</v>
+        <v>0.00879717543438425</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>2</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>7028</v>
+        <v>6710</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.001305492919286326</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.004608458556344573</v>
+        <v>0.00439998683402146</v>
       </c>
     </row>
     <row r="40">
@@ -3200,19 +3200,19 @@
         <v>93162</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>76197</v>
+        <v>77638</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>112018</v>
+        <v>115333</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1256441207532915</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1027644114821723</v>
+        <v>0.1047077311056687</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.151075495911927</v>
+        <v>0.1555460928576</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>65</v>
@@ -3221,19 +3221,19 @@
         <v>67631</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>53241</v>
+        <v>54863</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>85196</v>
+        <v>85887</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.08631739374609745</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06795234058673957</v>
+        <v>0.07002242712666985</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1087356675924286</v>
+        <v>0.1096177491794405</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>161</v>
@@ -3242,19 +3242,19 @@
         <v>160792</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>138656</v>
+        <v>137733</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>186242</v>
+        <v>185428</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1054387079801913</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.09092279059551263</v>
+        <v>0.09031791581212779</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1221272047950907</v>
+        <v>0.1215934244511168</v>
       </c>
     </row>
     <row r="41">
@@ -3271,19 +3271,19 @@
         <v>18745</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>11397</v>
+        <v>11367</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>28654</v>
+        <v>28862</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02528118853156498</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01537058024445542</v>
+        <v>0.01533059097727042</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03864407098310468</v>
+        <v>0.03892546608070519</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>43</v>
@@ -3292,19 +3292,19 @@
         <v>46473</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>34700</v>
+        <v>33120</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>61637</v>
+        <v>60694</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.05931339943989886</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.04428779156959973</v>
+        <v>0.04227162993359029</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.07866742359901342</v>
+        <v>0.07746373820900232</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>62</v>
@@ -3313,19 +3313,19 @@
         <v>65218</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>50346</v>
+        <v>50627</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>82504</v>
+        <v>82951</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.04276636772937362</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03301433323395175</v>
+        <v>0.03319826563126294</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.05410147825655735</v>
+        <v>0.05439462842159649</v>
       </c>
     </row>
     <row r="42">
@@ -3342,19 +3342,19 @@
         <v>629566</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>607945</v>
+        <v>607110</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>647870</v>
+        <v>647020</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.8490746907151435</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.8199146589579379</v>
+        <v>0.8187889095362905</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.8737609245995112</v>
+        <v>0.8726146088712049</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>635</v>
@@ -3363,19 +3363,19 @@
         <v>667417</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>646112</v>
+        <v>644843</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>685093</v>
+        <v>685325</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.8518282657194991</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.8246372438462091</v>
+        <v>0.8230170766593792</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.8743880619897638</v>
+        <v>0.8746848049706835</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1254</v>
@@ -3384,19 +3384,19 @@
         <v>1296983</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1266260</v>
+        <v>1267296</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1322561</v>
+        <v>1322152</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.8504894313711487</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.830343129473648</v>
+        <v>0.8310223749385931</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.8672619857279241</v>
+        <v>0.8669938117834919</v>
       </c>
     </row>
     <row r="43">
@@ -3488,19 +3488,19 @@
         <v>6100</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1642</v>
+        <v>1653</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>15569</v>
+        <v>14606</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.001865233617310533</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0005020178335551735</v>
+        <v>0.0005055614173955634</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.004760955927019834</v>
+        <v>0.004466387015569128</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>6915</v>
+        <v>6134</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.0005895041009453678</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.002047468957940107</v>
+        <v>0.001816302487953854</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>6</v>
@@ -3530,19 +3530,19 @@
         <v>8090</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2797</v>
+        <v>2925</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>16786</v>
+        <v>17140</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.001217097974012659</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0004207252314871573</v>
+        <v>0.0004399630774141163</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.002525168540737748</v>
+        <v>0.00257846368094145</v>
       </c>
     </row>
     <row r="45">
@@ -3559,19 +3559,19 @@
         <v>215626</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>187265</v>
+        <v>189421</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>243840</v>
+        <v>244491</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.0659378354222936</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.0572652960795984</v>
+        <v>0.05792459388754227</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.07456558338251881</v>
+        <v>0.07476471847284798</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>170</v>
@@ -3580,19 +3580,19 @@
         <v>175563</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>150550</v>
+        <v>151122</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>206312</v>
+        <v>205800</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.05198509762536468</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.0445786863457087</v>
+        <v>0.0447481572945548</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.06109015424158237</v>
+        <v>0.06093849432239743</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>379</v>
@@ -3601,19 +3601,19 @@
         <v>391188</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>353197</v>
+        <v>355706</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>431929</v>
+        <v>433862</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.05884913317642463</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.05313381621879094</v>
+        <v>0.05351136389692574</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.06497812125735823</v>
+        <v>0.06526888824248757</v>
       </c>
     </row>
     <row r="46">
@@ -3630,19 +3630,19 @@
         <v>130768</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>109846</v>
+        <v>109896</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>155064</v>
+        <v>154303</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.03998845209454274</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.03359056998245767</v>
+        <v>0.03360588165014673</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.04741818636571928</v>
+        <v>0.0471856574648</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>139</v>
@@ -3651,19 +3651,19 @@
         <v>146110</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>124761</v>
+        <v>123628</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>170426</v>
+        <v>170487</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.04326407202593066</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.03694232674690015</v>
+        <v>0.03660685404873956</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.05046400261617118</v>
+        <v>0.05048234806859613</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>268</v>
@@ -3672,19 +3672,19 @@
         <v>276878</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>244241</v>
+        <v>243150</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>310969</v>
+        <v>310587</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.04165263404235757</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.03674284583647279</v>
+        <v>0.03657867074712709</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.04678121914996116</v>
+        <v>0.04672377932613346</v>
       </c>
     </row>
     <row r="47">
@@ -3701,19 +3701,19 @@
         <v>2917642</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2879798</v>
+        <v>2880655</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2953406</v>
+        <v>2951954</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.8922084788658531</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.880635763183515</v>
+        <v>0.8808977508968203</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9031451275137928</v>
+        <v>0.902701007485365</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>2984</v>
@@ -3722,19 +3722,19 @@
         <v>3053507</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>3016292</v>
+        <v>3019218</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>3085698</v>
+        <v>3086992</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9041613262477592</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.8931418905883693</v>
+        <v>0.894008427077558</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9136934775182509</v>
+        <v>0.9140765587839939</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>5850</v>
@@ -3743,19 +3743,19 @@
         <v>5971148</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>5916570</v>
+        <v>5920057</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>6017620</v>
+        <v>6022116</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.8982811348072052</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.8900706284595722</v>
+        <v>0.8905951537277289</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9052722087049012</v>
+        <v>0.9059486196889498</v>
       </c>
     </row>
     <row r="48">
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8562</v>
+        <v>9076</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008290858242294153</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02904966945679724</v>
+        <v>0.03079266765987861</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -4128,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7737</v>
+        <v>8536</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004198801513605727</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01329420324837767</v>
+        <v>0.01466660537551518</v>
       </c>
     </row>
     <row r="5">
@@ -4154,19 +4154,19 @@
         <v>26639</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17446</v>
+        <v>17225</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37876</v>
+        <v>37317</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0903808817673977</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05919153742134065</v>
+        <v>0.05844016817808855</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1285060570847049</v>
+        <v>0.1266092311622095</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -4175,19 +4175,19 @@
         <v>17966</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10970</v>
+        <v>10760</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28311</v>
+        <v>28839</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06254508338837583</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03819132927753537</v>
+        <v>0.03745921302617278</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09855957061743416</v>
+        <v>0.1003969896661218</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>44</v>
@@ -4196,19 +4196,19 @@
         <v>44604</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33373</v>
+        <v>32957</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>60611</v>
+        <v>60720</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07664217550485133</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0573427611920348</v>
+        <v>0.05662835754818333</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1041464956524706</v>
+        <v>0.1043327249074404</v>
       </c>
     </row>
     <row r="6">
@@ -4225,19 +4225,19 @@
         <v>13894</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7638</v>
+        <v>7479</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23931</v>
+        <v>23363</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0471410745829902</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02591540055797593</v>
+        <v>0.02537641780976337</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08119524716867239</v>
+        <v>0.07926825142165207</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -4246,19 +4246,19 @@
         <v>7603</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3218</v>
+        <v>3329</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14837</v>
+        <v>16141</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0264699837933041</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01120146192232515</v>
+        <v>0.01158939024397825</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05165116910321006</v>
+        <v>0.05619393602305749</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>20</v>
@@ -4267,19 +4267,19 @@
         <v>21498</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>12773</v>
+        <v>13341</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>32137</v>
+        <v>32382</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.036938599316466</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02194655130810986</v>
+        <v>0.02292377386482776</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05522032873274585</v>
+        <v>0.05564122944861254</v>
       </c>
     </row>
     <row r="7">
@@ -4296,19 +4296,19 @@
         <v>251761</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>237354</v>
+        <v>237426</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>263920</v>
+        <v>263330</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.854187185407318</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8053042790992235</v>
+        <v>0.8055508340697418</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8954389757556741</v>
+        <v>0.893438970465315</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>232</v>
@@ -4317,19 +4317,19 @@
         <v>261676</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>249524</v>
+        <v>248862</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>270534</v>
+        <v>269581</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.91098493281832</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8686800924225321</v>
+        <v>0.8663738064976899</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9418220840992916</v>
+        <v>0.9385069967951387</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>472</v>
@@ -4338,19 +4338,19 @@
         <v>513437</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>495873</v>
+        <v>494784</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>528027</v>
+        <v>527880</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8822204236650769</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8520401566698788</v>
+        <v>0.8501694076952812</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9072889981340545</v>
+        <v>0.907036547785641</v>
       </c>
     </row>
     <row r="8">
@@ -4489,19 +4489,19 @@
         <v>24371</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14212</v>
+        <v>15605</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36876</v>
+        <v>37960</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04830370826276407</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0281671027542369</v>
+        <v>0.03092964656458693</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07308722648330146</v>
+        <v>0.07523590186133708</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -4510,19 +4510,19 @@
         <v>22956</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14575</v>
+        <v>14391</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35553</v>
+        <v>33972</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04382799284980914</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02782747575901053</v>
+        <v>0.027476943511533</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06787948574566068</v>
+        <v>0.0648606924430097</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>40</v>
@@ -4531,19 +4531,19 @@
         <v>47327</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34365</v>
+        <v>35625</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>64320</v>
+        <v>66752</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04602402515587557</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03341899569311912</v>
+        <v>0.03464466276503199</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06254951421993012</v>
+        <v>0.06491425249747153</v>
       </c>
     </row>
     <row r="11">
@@ -4560,19 +4560,19 @@
         <v>30244</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19782</v>
+        <v>18517</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45501</v>
+        <v>44895</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05994213322584482</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03920732502214419</v>
+        <v>0.03670002564287127</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09018294996510869</v>
+        <v>0.08898195877337559</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -4581,19 +4581,19 @@
         <v>29670</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19481</v>
+        <v>18881</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44504</v>
+        <v>42208</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.056648424162468</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03719502987995656</v>
+        <v>0.03604955611862869</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08496922375543631</v>
+        <v>0.08058618179130424</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>47</v>
@@ -4602,19 +4602,19 @@
         <v>59914</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>45761</v>
+        <v>45129</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>80323</v>
+        <v>80232</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05826449910079477</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04450113777802438</v>
+        <v>0.0438866300872816</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07811163578453194</v>
+        <v>0.0780226362212285</v>
       </c>
     </row>
     <row r="12">
@@ -4631,19 +4631,19 @@
         <v>449931</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>431788</v>
+        <v>432729</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>464026</v>
+        <v>464806</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8917541585113911</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8557945512044488</v>
+        <v>0.8576596354691232</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9196908446399809</v>
+        <v>0.9212353614839852</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>437</v>
@@ -4652,19 +4652,19 @@
         <v>471139</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>453735</v>
+        <v>455441</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>484478</v>
+        <v>484694</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8995235829877228</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8662953780850041</v>
+        <v>0.8695522219360715</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9249903818962181</v>
+        <v>0.9254030035094479</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>864</v>
@@ -4673,19 +4673,19 @@
         <v>921070</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>896053</v>
+        <v>897066</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>941199</v>
+        <v>940898</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8957114757433297</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8713830423796656</v>
+        <v>0.8723686427555162</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.915285952819499</v>
+        <v>0.9149938204075058</v>
       </c>
     </row>
     <row r="13">
@@ -4824,19 +4824,19 @@
         <v>7953</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3083</v>
+        <v>3021</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16628</v>
+        <v>14862</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.02454275570050993</v>
+        <v>0.02454275570050992</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.009515194552086862</v>
+        <v>0.009323999869814269</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05131287718135071</v>
+        <v>0.0458642020761197</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>9</v>
@@ -4845,19 +4845,19 @@
         <v>10752</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>5198</v>
+        <v>5071</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>19954</v>
+        <v>19260</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03152988618315457</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01524213429669855</v>
+        <v>0.01486945243276465</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.05851371223475138</v>
+        <v>0.05647660285295399</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>16</v>
@@ -4866,19 +4866,19 @@
         <v>18705</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>10930</v>
+        <v>11059</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>30068</v>
+        <v>30768</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02812548472617419</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01643431086596793</v>
+        <v>0.01662902022899191</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04520994514737411</v>
+        <v>0.04626360305428423</v>
       </c>
     </row>
     <row r="16">
@@ -4895,19 +4895,19 @@
         <v>16357</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9731</v>
+        <v>9577</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27009</v>
+        <v>26520</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05047745479884865</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03003049499504139</v>
+        <v>0.02955460255228726</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08335038183056584</v>
+        <v>0.08184056904536691</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -4916,19 +4916,19 @@
         <v>9567</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3880</v>
+        <v>4436</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19088</v>
+        <v>18461</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02805343599327321</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01137876370336833</v>
+        <v>0.01300892223486697</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0559723169004813</v>
+        <v>0.05413353759426547</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -4937,19 +4937,19 @@
         <v>25924</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16562</v>
+        <v>17259</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37641</v>
+        <v>37685</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03897928924342769</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02490325423300179</v>
+        <v>0.02595094365186764</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05659713007245137</v>
+        <v>0.05666291335302324</v>
       </c>
     </row>
     <row r="17">
@@ -4966,19 +4966,19 @@
         <v>299736</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>287400</v>
+        <v>287787</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>307646</v>
+        <v>308356</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9249797895006414</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.886910048516405</v>
+        <v>0.888105120307092</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9493888762414729</v>
+        <v>0.9515799950262154</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>300</v>
@@ -4987,19 +4987,19 @@
         <v>320701</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>307316</v>
+        <v>309915</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>328309</v>
+        <v>328934</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9404166778235722</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9011668835345776</v>
+        <v>0.908788113097478</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.962727239791046</v>
+        <v>0.9645606567103699</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>597</v>
@@ -5008,19 +5008,19 @@
         <v>620437</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>605151</v>
+        <v>605525</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>633634</v>
+        <v>632843</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9328952260303981</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9099115251531555</v>
+        <v>0.910474144699172</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.95273779578235</v>
+        <v>0.951548874754507</v>
       </c>
     </row>
     <row r="18">
@@ -5159,19 +5159,19 @@
         <v>10354</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5251</v>
+        <v>5122</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18845</v>
+        <v>18481</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02768569683168865</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01403969394600692</v>
+        <v>0.01369599019130011</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05039042989596499</v>
+        <v>0.0494166830883612</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -5180,19 +5180,19 @@
         <v>15302</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9626</v>
+        <v>8526</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>24545</v>
+        <v>24328</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03934253822282095</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02474809877510627</v>
+        <v>0.02192047630268483</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0631062517410465</v>
+        <v>0.06254796324634336</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -5201,19 +5201,19 @@
         <v>25656</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>16864</v>
+        <v>17151</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>37287</v>
+        <v>38121</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03362847215985365</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02210467950501241</v>
+        <v>0.02248043508019152</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04887365833073366</v>
+        <v>0.04996633074261345</v>
       </c>
     </row>
     <row r="21">
@@ -5230,19 +5230,19 @@
         <v>26186</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15365</v>
+        <v>16721</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>38243</v>
+        <v>38394</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07002071854458097</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04108407737632584</v>
+        <v>0.04471026274308735</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1022593425598686</v>
+        <v>0.1026635429117096</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>18</v>
@@ -5251,19 +5251,19 @@
         <v>18099</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>11369</v>
+        <v>11021</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>28044</v>
+        <v>26716</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04653260400078583</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02923108276945442</v>
+        <v>0.02833525430293195</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07210268921671249</v>
+        <v>0.06868720253696659</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>40</v>
@@ -5272,19 +5272,19 @@
         <v>44285</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>32313</v>
+        <v>32296</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>60781</v>
+        <v>59997</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05804624081666358</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04235328943039599</v>
+        <v>0.04233201439109602</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07966738144531119</v>
+        <v>0.07863944453867915</v>
       </c>
     </row>
     <row r="22">
@@ -5301,19 +5301,19 @@
         <v>337442</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>323694</v>
+        <v>324086</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>348746</v>
+        <v>348015</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9022935846237303</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8655344573899753</v>
+        <v>0.8665816039466554</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9325200939188295</v>
+        <v>0.9305671791392647</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>338</v>
@@ -5322,19 +5322,19 @@
         <v>355550</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>342825</v>
+        <v>343380</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>364670</v>
+        <v>366380</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9141248577763932</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.881408120308138</v>
+        <v>0.882836226025597</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9375737198587722</v>
+        <v>0.9419690228927771</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>650</v>
@@ -5343,19 +5343,19 @@
         <v>692991</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>674469</v>
+        <v>675691</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>707765</v>
+        <v>708902</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9083252870234828</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8840475406761935</v>
+        <v>0.8856485698904832</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.927689402412824</v>
+        <v>0.9291801483760929</v>
       </c>
     </row>
     <row r="23">
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5967</v>
+        <v>5309</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.005444606883953293</v>
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02717164266294578</v>
+        <v>0.0241769940621531</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -5484,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7508</v>
+        <v>5995</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.002766223196092101</v>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01737049032967088</v>
+        <v>0.01387106326585094</v>
       </c>
     </row>
     <row r="25">
@@ -5510,19 +5510,19 @@
         <v>17544</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10575</v>
+        <v>10763</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26982</v>
+        <v>27755</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08251365901139504</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04973895178229967</v>
+        <v>0.05062196589996476</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1269059664723279</v>
+        <v>0.1305393156000397</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -5531,19 +5531,19 @@
         <v>16299</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9543</v>
+        <v>10306</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25485</v>
+        <v>25544</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07422349906170986</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04345716032084782</v>
+        <v>0.04693160071245338</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1160550366165634</v>
+        <v>0.1163233354231547</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>33</v>
@@ -5552,19 +5552,19 @@
         <v>33843</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>23468</v>
+        <v>23082</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>46128</v>
+        <v>45891</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07830170519343972</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0542972508832552</v>
+        <v>0.05340500393161487</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1067258721532858</v>
+        <v>0.1061773513963237</v>
       </c>
     </row>
     <row r="26">
@@ -5581,19 +5581,19 @@
         <v>5070</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10307</v>
+        <v>11354</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02384335305729972</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.00922405284327389</v>
+        <v>0.009216399120748191</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04847734125093911</v>
+        <v>0.05339991810840628</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -5602,19 +5602,19 @@
         <v>4742</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1786</v>
+        <v>1819</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11054</v>
+        <v>11641</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02159328052968706</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008133392581559986</v>
+        <v>0.008281708871805417</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05033690898990493</v>
+        <v>0.05301033179221212</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>10</v>
@@ -5623,19 +5623,19 @@
         <v>9811</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4997</v>
+        <v>4962</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>17214</v>
+        <v>16762</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02270016623932833</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01156086435024829</v>
+        <v>0.01148153337314288</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03982819669755754</v>
+        <v>0.03878319733357833</v>
       </c>
     </row>
     <row r="27">
@@ -5652,19 +5652,19 @@
         <v>190005</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>179644</v>
+        <v>179205</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>197585</v>
+        <v>197953</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8936429879313053</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8449154950284464</v>
+        <v>0.8428509208362227</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9292939976110359</v>
+        <v>0.9310253729344248</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>190</v>
@@ -5673,19 +5673,19 @@
         <v>197355</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>187223</v>
+        <v>188217</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>205000</v>
+        <v>205011</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8987386135246498</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8525996556209936</v>
+        <v>0.8571256997785419</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.933555633729061</v>
+        <v>0.9336042737662985</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>364</v>
@@ -5694,19 +5694,19 @@
         <v>387359</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>372530</v>
+        <v>373987</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>398550</v>
+        <v>399681</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8962319053711398</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8619207725001646</v>
+        <v>0.8652916025722482</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9221228283080245</v>
+        <v>0.9247391334349565</v>
       </c>
     </row>
     <row r="28">
@@ -5845,19 +5845,19 @@
         <v>9837</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4768</v>
+        <v>4914</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18598</v>
+        <v>17835</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03590354943244514</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01740204693499837</v>
+        <v>0.01793680936773463</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06788029665814549</v>
+        <v>0.06509424371847286</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -5866,19 +5866,19 @@
         <v>4762</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>986</v>
+        <v>1084</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>11166</v>
+        <v>12567</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01700500514190742</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.003522187878190585</v>
+        <v>0.003871578621918012</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03987553342006184</v>
+        <v>0.04487864731192327</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>13</v>
@@ -5887,19 +5887,19 @@
         <v>14599</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>8328</v>
+        <v>7626</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>24815</v>
+        <v>24222</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0263510881062486</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01503159172525752</v>
+        <v>0.01376528316413884</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04479159130021611</v>
+        <v>0.04372066136162692</v>
       </c>
     </row>
     <row r="31">
@@ -5916,19 +5916,19 @@
         <v>12411</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>5956</v>
+        <v>6215</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>23480</v>
+        <v>24107</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04529951826145247</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02173996907129299</v>
+        <v>0.02268366705476615</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08569984254386956</v>
+        <v>0.08798637967885302</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -5937,19 +5937,19 @@
         <v>4994</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1962</v>
+        <v>1918</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11045</v>
+        <v>12249</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01783309687012005</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.007005789443330751</v>
+        <v>0.006849551023387358</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03944233322701986</v>
+        <v>0.04374092107388122</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>15</v>
@@ -5958,19 +5958,19 @@
         <v>17405</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10228</v>
+        <v>10085</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>29395</v>
+        <v>29936</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03141633635727339</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01846246686138768</v>
+        <v>0.01820301821218931</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.053057988770492</v>
+        <v>0.05403461551237036</v>
       </c>
     </row>
     <row r="32">
@@ -5987,19 +5987,19 @@
         <v>251733</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>239800</v>
+        <v>239792</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>260041</v>
+        <v>259799</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9187969323061024</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.87524171497504</v>
+        <v>0.8752153591686506</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9491201143785749</v>
+        <v>0.9482364171751488</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>260</v>
@@ -6008,19 +6008,19 @@
         <v>270275</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>262433</v>
+        <v>261611</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>275321</v>
+        <v>275187</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9651618979879725</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9371580132228486</v>
+        <v>0.9342223964001156</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9831805607105205</v>
+        <v>0.9827023864134946</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>502</v>
@@ -6029,19 +6029,19 @@
         <v>522008</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>508583</v>
+        <v>508210</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>531411</v>
+        <v>533119</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.942232575536478</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9179997770801381</v>
+        <v>0.917326860095261</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9592047343153401</v>
+        <v>0.9622886482946744</v>
       </c>
     </row>
     <row r="33">
@@ -6180,19 +6180,19 @@
         <v>22823</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>14456</v>
+        <v>15057</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>34679</v>
+        <v>34957</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03443464796086874</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02181131743783377</v>
+        <v>0.02271785636695318</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05232356417223658</v>
+        <v>0.05274260123130246</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>22</v>
@@ -6201,19 +6201,19 @@
         <v>24484</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>15751</v>
+        <v>15479</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>35993</v>
+        <v>36513</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03528667271019624</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02270079178572807</v>
+        <v>0.02230924423248993</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.05187469018897514</v>
+        <v>0.05262316648346646</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>44</v>
@@ -6222,19 +6222,19 @@
         <v>47307</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>34974</v>
+        <v>34895</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>63951</v>
+        <v>63933</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03487041534450564</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02577967229416214</v>
+        <v>0.02572150651524308</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04713909314271311</v>
+        <v>0.04712586453883895</v>
       </c>
     </row>
     <row r="36">
@@ -6251,19 +6251,19 @@
         <v>26249</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>16858</v>
+        <v>16336</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>37980</v>
+        <v>39160</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03960398641149558</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02543480241127809</v>
+        <v>0.024646847991665</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05730334976189558</v>
+        <v>0.0590838116824246</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>16</v>
@@ -6272,19 +6272,19 @@
         <v>19527</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>10974</v>
+        <v>11730</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>31346</v>
+        <v>32498</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0281425847019325</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01581568826570518</v>
+        <v>0.01690489389725158</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0451773604684308</v>
+        <v>0.04683634023894262</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>39</v>
@@ -6293,19 +6293,19 @@
         <v>45776</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>32407</v>
+        <v>32542</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>63207</v>
+        <v>61768</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03374206157922991</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02388775317642524</v>
+        <v>0.02398717754926303</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04659085750344594</v>
+        <v>0.04552981216904786</v>
       </c>
     </row>
     <row r="37">
@@ -6322,19 +6322,19 @@
         <v>613716</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>597039</v>
+        <v>598363</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>626402</v>
+        <v>626954</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9259613656276356</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9007987978733303</v>
+        <v>0.9027964607494969</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9451010987656715</v>
+        <v>0.9459337725226169</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>598</v>
@@ -6343,19 +6343,19 @@
         <v>649842</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>635632</v>
+        <v>634141</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>662174</v>
+        <v>662029</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9365707425878712</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9160899941124016</v>
+        <v>0.9139415116028627</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9543435422202584</v>
+        <v>0.9541338649540422</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1171</v>
@@ -6364,19 +6364,19 @@
         <v>1263559</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1244560</v>
+        <v>1241490</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1282824</v>
+        <v>1282890</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9313875230762645</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9173831681942117</v>
+        <v>0.9151202702710378</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9455883573541252</v>
+        <v>0.9456372918796062</v>
       </c>
     </row>
     <row r="38">
@@ -6471,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>6335</v>
+        <v>6373</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.001627746591659868</v>
@@ -6480,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.008130951198530243</v>
+        <v>0.008179818248382983</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>0</v>
@@ -6505,7 +6505,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>5893</v>
+        <v>6353</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0007911497846600362</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.003676327926114018</v>
+        <v>0.003963581277583386</v>
       </c>
     </row>
     <row r="40">
@@ -6531,19 +6531,19 @@
         <v>38141</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>26170</v>
+        <v>26068</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>53139</v>
+        <v>51692</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.04895537865239327</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03359033448366632</v>
+        <v>0.03345950614775865</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06820532197058407</v>
+        <v>0.06634789766672156</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>35</v>
@@ -6552,19 +6552,19 @@
         <v>36961</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>26390</v>
+        <v>27188</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>50905</v>
+        <v>51187</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.04486347329088643</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.03203183385904037</v>
+        <v>0.03300080589761425</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.06178948410401618</v>
+        <v>0.06213106100211808</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>70</v>
@@ -6573,19 +6573,19 @@
         <v>75102</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>58626</v>
+        <v>59058</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>93382</v>
+        <v>94368</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.04685230254858076</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.03657397951632219</v>
+        <v>0.03684311871934175</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.05825620414816808</v>
+        <v>0.0588714267796499</v>
       </c>
     </row>
     <row r="41">
@@ -6602,19 +6602,19 @@
         <v>28579</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>17800</v>
+        <v>18630</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>43052</v>
+        <v>42804</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03668170133413588</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02284730060524163</v>
+        <v>0.02391250781591411</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.05525872491770194</v>
+        <v>0.05494003359846093</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>22</v>
@@ -6623,19 +6623,19 @@
         <v>28297</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>17251</v>
+        <v>17904</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>41920</v>
+        <v>42451</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.03434677974564435</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02093950207585266</v>
+        <v>0.02173160863876717</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.05088239973200601</v>
+        <v>0.05152747852883194</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>45</v>
@@ -6644,19 +6644,19 @@
         <v>56875</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>40772</v>
+        <v>42298</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>75789</v>
+        <v>76488</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03548164479245082</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02543549154599632</v>
+        <v>0.02638757010002086</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04728095657048038</v>
+        <v>0.04771702687132335</v>
       </c>
     </row>
     <row r="42">
@@ -6673,19 +6673,19 @@
         <v>711110</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>691348</v>
+        <v>692974</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>726066</v>
+        <v>727270</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.912735173421811</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.8873696535919803</v>
+        <v>0.8894567801660156</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9319315236056329</v>
+        <v>0.9334773339254834</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>700</v>
@@ -6694,19 +6694,19 @@
         <v>758595</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>741723</v>
+        <v>739429</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>774119</v>
+        <v>773128</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9207897469634693</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9003099940379473</v>
+        <v>0.8975249041004254</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9396324064623608</v>
+        <v>0.9384299439394205</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1358</v>
@@ -6715,19 +6715,19 @@
         <v>1469706</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1442910</v>
+        <v>1443057</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1491017</v>
+        <v>1492966</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9168749028743084</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9001585126066362</v>
+        <v>0.9002503831637797</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9301700447226704</v>
+        <v>0.9313858370985462</v>
       </c>
     </row>
     <row r="43">
@@ -6819,19 +6819,19 @@
         <v>3712</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>10009</v>
+        <v>10023</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.001083486624067237</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0003529966623905962</v>
+        <v>0.0003519520413960138</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.002921677187784288</v>
+        <v>0.002925602997997444</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1</v>
@@ -6843,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>5992</v>
+        <v>5988</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.0003359985463963319</v>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.001684012584879153</v>
+        <v>0.001682962210848899</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>4</v>
@@ -6861,19 +6861,19 @@
         <v>4907</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1223</v>
+        <v>1255</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>11579</v>
+        <v>12139</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.0007026514280744572</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0001751618645470115</v>
+        <v>0.0001796426628966159</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.001657895224607754</v>
+        <v>0.001738117953636878</v>
       </c>
     </row>
     <row r="45">
@@ -6890,19 +6890,19 @@
         <v>157662</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>133178</v>
+        <v>132504</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>182807</v>
+        <v>184248</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.04602191712718748</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.03887494816695725</v>
+        <v>0.03867836304736937</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.05336189745868819</v>
+        <v>0.05378243047157579</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>138</v>
@@ -6911,19 +6911,19 @@
         <v>149481</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>126801</v>
+        <v>126640</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>176435</v>
+        <v>176584</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.04200910711895786</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.03563517804551721</v>
+        <v>0.03558986943387049</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.04958403618474268</v>
+        <v>0.04962583180756835</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>285</v>
@@ -6932,19 +6932,19 @@
         <v>307143</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>273734</v>
+        <v>273976</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>346887</v>
+        <v>345686</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.0439774440023081</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.03919390540770182</v>
+        <v>0.03922843863669839</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.04966805321172874</v>
+        <v>0.04949602102983668</v>
       </c>
     </row>
     <row r="46">
@@ -6961,19 +6961,19 @@
         <v>158990</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>132569</v>
+        <v>134025</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>188934</v>
+        <v>188425</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.04640956665480246</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.0386971320700477</v>
+        <v>0.03912233361431316</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.05515029376058733</v>
+        <v>0.05500176796351062</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>104</v>
@@ -6982,19 +6982,19 @@
         <v>122499</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>101171</v>
+        <v>99067</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>147786</v>
+        <v>148386</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.03442605532523693</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02843226174256035</v>
+        <v>0.02784094323622355</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.04153256012250402</v>
+        <v>0.04170125120136561</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>239</v>
@@ -7003,19 +7003,19 @@
         <v>281488</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>246945</v>
+        <v>248690</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>319385</v>
+        <v>318172</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.04030412762211991</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.03535818613655566</v>
+        <v>0.03560799909415539</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.04573024051090818</v>
+        <v>0.04555661242790236</v>
       </c>
     </row>
     <row r="47">
@@ -7032,19 +7032,19 @@
         <v>3105435</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3067843</v>
+        <v>3066793</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3141063</v>
+        <v>3139565</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9064850295939428</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.8955118567012791</v>
+        <v>0.8952053297779341</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9168850849892409</v>
+        <v>0.916447693830337</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>3055</v>
@@ -7053,19 +7053,19 @@
         <v>3285133</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>3251837</v>
+        <v>3252777</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>3317618</v>
+        <v>3320237</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9232288390094089</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.9138714403771363</v>
+        <v>0.9141357309009236</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9323580165370061</v>
+        <v>0.9330940274544864</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>5978</v>
@@ -7074,19 +7074,19 @@
         <v>6390568</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>6339461</v>
+        <v>6334609</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>6439485</v>
+        <v>6433815</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9150157769474975</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.907698166376712</v>
+        <v>0.9070033752770634</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9220198370261226</v>
+        <v>0.9212079495076542</v>
       </c>
     </row>
     <row r="48">
@@ -7438,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6567</v>
+        <v>6144</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0042081704812359</v>
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02282304538342722</v>
+        <v>0.02135476783737065</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -7459,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5854</v>
+        <v>6887</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002082241481129183</v>
@@ -7468,7 +7468,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01006717706930196</v>
+        <v>0.01184366146892819</v>
       </c>
     </row>
     <row r="5">
@@ -7485,19 +7485,19 @@
         <v>18671</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11799</v>
+        <v>11271</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29132</v>
+        <v>27977</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06355878161677223</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04016641982833081</v>
+        <v>0.03836684575534914</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09916945906321122</v>
+        <v>0.09523840308234363</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -7506,19 +7506,19 @@
         <v>17548</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10518</v>
+        <v>9977</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28147</v>
+        <v>28514</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06098910629689969</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03655748996545358</v>
+        <v>0.03467420435858143</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09782603768885559</v>
+        <v>0.0991024785847856</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>33</v>
@@ -7527,19 +7527,19 @@
         <v>36219</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25770</v>
+        <v>25862</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51406</v>
+        <v>50151</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06228728262025318</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04431794348729015</v>
+        <v>0.04447510516732631</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08840405361687467</v>
+        <v>0.08624590303700048</v>
       </c>
     </row>
     <row r="6">
@@ -7556,19 +7556,19 @@
         <v>6556</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2711</v>
+        <v>2806</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14423</v>
+        <v>13948</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02231747994876455</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.009228065635377721</v>
+        <v>0.009552064397948428</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04909842561835646</v>
+        <v>0.04748023198754255</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -7577,19 +7577,19 @@
         <v>6453</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2629</v>
+        <v>2072</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12953</v>
+        <v>12976</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02242933457417082</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.009136097435126235</v>
+        <v>0.007199705700017022</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04502057346240184</v>
+        <v>0.04509836721820775</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -7598,19 +7598,19 @@
         <v>13009</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7136</v>
+        <v>7061</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23274</v>
+        <v>23566</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02237282664679298</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01227226533114109</v>
+        <v>0.01214294833252466</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04002530522781119</v>
+        <v>0.04052700583178975</v>
       </c>
     </row>
     <row r="7">
@@ -7627,19 +7627,19 @@
         <v>268534</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>256565</v>
+        <v>257247</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>276550</v>
+        <v>277372</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9141237384344633</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8733789527153683</v>
+        <v>0.8757020156835307</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9414121430541469</v>
+        <v>0.944209678744213</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>254</v>
@@ -7648,19 +7648,19 @@
         <v>262512</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>250827</v>
+        <v>251095</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>271104</v>
+        <v>271441</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9123733886476936</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8717608524998074</v>
+        <v>0.8726947328932541</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9422349611539819</v>
+        <v>0.9434088869428409</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>496</v>
@@ -7669,19 +7669,19 @@
         <v>531046</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>514631</v>
+        <v>514827</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>544045</v>
+        <v>543738</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9132576492518246</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8850294018164762</v>
+        <v>0.8853662414374923</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9356122916389062</v>
+        <v>0.9350858916110406</v>
       </c>
     </row>
     <row r="8">
@@ -7789,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6000</v>
+        <v>5439</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.002070121898896311</v>
@@ -7798,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01147098504536161</v>
+        <v>0.0103980568995266</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -7810,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5822</v>
+        <v>5445</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001055757577970388</v>
@@ -7819,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.00567597316699201</v>
+        <v>0.005308786053257822</v>
       </c>
     </row>
     <row r="10">
@@ -7836,19 +7836,19 @@
         <v>3926</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12032</v>
+        <v>11060</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007811664211811889</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002020518786450166</v>
+        <v>0.002028686686279316</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02393979142912868</v>
+        <v>0.0220076178829083</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -7857,19 +7857,19 @@
         <v>8744</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15693</v>
+        <v>16481</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01671537598806183</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008005129639247663</v>
+        <v>0.008005644025874279</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03000137736938156</v>
+        <v>0.03150699745842512</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -7878,19 +7878,19 @@
         <v>12669</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6435</v>
+        <v>6874</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21910</v>
+        <v>22016</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01235253747384142</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006274349121631649</v>
+        <v>0.006702161955501912</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02136148103352604</v>
+        <v>0.02146511848761222</v>
       </c>
     </row>
     <row r="11">
@@ -7907,19 +7907,19 @@
         <v>9371</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5111</v>
+        <v>4174</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17218</v>
+        <v>17840</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01864601024493424</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01017052551936868</v>
+        <v>0.008305075416787546</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03425889753952219</v>
+        <v>0.03549682716509221</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -7928,19 +7928,19 @@
         <v>16078</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9222</v>
+        <v>9770</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26566</v>
+        <v>25602</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03073770064809432</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01763100827224569</v>
+        <v>0.01867855389585769</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05078788783067024</v>
+        <v>0.04894413859496818</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>24</v>
@@ -7949,19 +7949,19 @@
         <v>25449</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16517</v>
+        <v>16120</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>37312</v>
+        <v>36856</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02481274553738935</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01610401541220912</v>
+        <v>0.01571701835588029</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03637862548341295</v>
+        <v>0.03593435104932775</v>
       </c>
     </row>
     <row r="12">
@@ -7978,19 +7978,19 @@
         <v>489278</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>480349</v>
+        <v>479114</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>495417</v>
+        <v>495512</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9735423255432539</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9557753564827397</v>
+        <v>0.9533184182819251</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9857578487902389</v>
+        <v>0.9859457080533492</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>460</v>
@@ -7999,19 +7999,19 @@
         <v>497179</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>485384</v>
+        <v>484937</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>506111</v>
+        <v>505913</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9504768014649475</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9279271028105424</v>
+        <v>0.9270722105421881</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9675530095549149</v>
+        <v>0.9671728338573334</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>923</v>
@@ -8020,19 +8020,19 @@
         <v>986457</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>973084</v>
+        <v>972264</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>997666</v>
+        <v>997322</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9617789594107988</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9487402183720562</v>
+        <v>0.9479412150937198</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9727070808569867</v>
+        <v>0.9723716105476453</v>
       </c>
     </row>
     <row r="13">
@@ -8174,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9060</v>
+        <v>9262</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.007686097477800764</v>
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02861089288137927</v>
+        <v>0.02924808204146414</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -8195,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7012</v>
+        <v>7473</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.005930508893429076</v>
@@ -8204,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02085002318786493</v>
+        <v>0.02222077886421684</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -8213,19 +8213,19 @@
         <v>4428</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1003</v>
+        <v>1577</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>11040</v>
+        <v>10995</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.00678189840388706</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.001535984495337763</v>
+        <v>0.002415783747248836</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01690681717049302</v>
+        <v>0.01683795982162848</v>
       </c>
     </row>
     <row r="16">
@@ -8242,19 +8242,19 @@
         <v>23814</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15474</v>
+        <v>15843</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33824</v>
+        <v>33845</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07520205108107093</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04886518643385815</v>
+        <v>0.0500316379312808</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1068112288839717</v>
+        <v>0.106880391484149</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -8263,19 +8263,19 @@
         <v>11879</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7191</v>
+        <v>6390</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20168</v>
+        <v>19881</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03532038653032657</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02138242415840928</v>
+        <v>0.01899995962723985</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0599673413871727</v>
+        <v>0.05911428006115187</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -8284,19 +8284,19 @@
         <v>35693</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25742</v>
+        <v>25926</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47896</v>
+        <v>47644</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05466138200066336</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03942271833024431</v>
+        <v>0.03970387462876505</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07334996282827484</v>
+        <v>0.07296423043127961</v>
       </c>
     </row>
     <row r="17">
@@ -8313,19 +8313,19 @@
         <v>290419</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>279380</v>
+        <v>279630</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>299039</v>
+        <v>298678</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9171118514411283</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8822508424194901</v>
+        <v>0.883040378778143</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.944332789995611</v>
+        <v>0.94319302890031</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>317</v>
@@ -8334,19 +8334,19 @@
         <v>322436</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>313711</v>
+        <v>314594</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>328010</v>
+        <v>328989</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9587491045762444</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9328065504833941</v>
+        <v>0.9354316267883441</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9753240429245457</v>
+        <v>0.978234253723286</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>623</v>
@@ -8355,19 +8355,19 @@
         <v>612855</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>599528</v>
+        <v>600105</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>623548</v>
+        <v>623215</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9385567195954496</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9181468637603164</v>
+        <v>0.9190305074163176</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9549327681222257</v>
+        <v>0.9544223694649825</v>
       </c>
     </row>
     <row r="18">
@@ -8462,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10511</v>
+        <v>8764</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.004767647751696249</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02841200449920884</v>
+        <v>0.02368931753907872</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -8496,7 +8496,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7122</v>
+        <v>9441</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.002329303419356719</v>
@@ -8505,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.00940450037611063</v>
+        <v>0.01246718534718017</v>
       </c>
     </row>
     <row r="20">
@@ -8522,19 +8522,19 @@
         <v>29107</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>19491</v>
+        <v>19912</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>41583</v>
+        <v>42333</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07867425737082454</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05268435812993907</v>
+        <v>0.05382030331015131</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1123979272824662</v>
+        <v>0.1144256313717643</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>24</v>
@@ -8543,19 +8543,19 @@
         <v>27203</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18191</v>
+        <v>17579</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>40667</v>
+        <v>38910</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07024041278445792</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04697078381414928</v>
+        <v>0.04538988218301972</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1050064554962535</v>
+        <v>0.1004699207898065</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>50</v>
@@ -8564,19 +8564,19 @@
         <v>56310</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>43592</v>
+        <v>42521</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>74391</v>
+        <v>73501</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07436088981138542</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05756643322082677</v>
+        <v>0.05615165065354726</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09823925985053046</v>
+        <v>0.0970640817558885</v>
       </c>
     </row>
     <row r="21">
@@ -8593,19 +8593,19 @@
         <v>15731</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9156</v>
+        <v>8682</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>25873</v>
+        <v>24723</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04251951675274629</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0247476816216169</v>
+        <v>0.02346590312627462</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0699334810951054</v>
+        <v>0.06682429223041193</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -8614,19 +8614,19 @@
         <v>9141</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3743</v>
+        <v>4031</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18010</v>
+        <v>18518</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02360166466802691</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.009663867907873965</v>
+        <v>0.01040885373746899</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04650300303942224</v>
+        <v>0.04781558030104877</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>22</v>
@@ -8635,19 +8635,19 @@
         <v>24871</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>15371</v>
+        <v>16274</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>37961</v>
+        <v>37424</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03284425553102507</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02029862766752278</v>
+        <v>0.02149120278251385</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0501300523539706</v>
+        <v>0.04942054860603286</v>
       </c>
     </row>
     <row r="22">
@@ -8664,19 +8664,19 @@
         <v>323363</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>308765</v>
+        <v>307904</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>334336</v>
+        <v>336128</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.874038578124733</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.834581477417614</v>
+        <v>0.8322551711544691</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9036978803585656</v>
+        <v>0.9085419810185282</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>327</v>
@@ -8685,19 +8685,19 @@
         <v>350940</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>335290</v>
+        <v>337029</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>361138</v>
+        <v>361856</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9061579225475151</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8657500195340775</v>
+        <v>0.8702391851663532</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9324901157116392</v>
+        <v>0.9343439059444897</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>639</v>
@@ -8706,19 +8706,19 @@
         <v>674302</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>654599</v>
+        <v>654673</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>690973</v>
+        <v>691509</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8904655512382328</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8644463577504459</v>
+        <v>0.8645432695142118</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9124801231763225</v>
+        <v>0.913188182700958</v>
       </c>
     </row>
     <row r="23">
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7521</v>
+        <v>8859</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.007151425552134143</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03560609119163603</v>
+        <v>0.0419407857905156</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -8834,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5166</v>
+        <v>3462</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0038922747274713</v>
@@ -8843,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02363168030794168</v>
+        <v>0.01583935656790563</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -8855,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8458</v>
+        <v>8052</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.005493922657360984</v>
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01967843638466995</v>
+        <v>0.01873403581952567</v>
       </c>
     </row>
     <row r="25">
@@ -8884,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6326</v>
+        <v>6284</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.008423771369784961</v>
@@ -8893,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02994849840911107</v>
+        <v>0.02974995868267699</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4905</v>
+        <v>4953</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.004461398859833788</v>
@@ -8914,7 +8914,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0224392583119336</v>
+        <v>0.02265864178816964</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -8923,19 +8923,19 @@
         <v>2754</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8718</v>
+        <v>7542</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.00640863176479504</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002064474759051356</v>
+        <v>0.002058313899620804</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02028363064940996</v>
+        <v>0.01754815793065303</v>
       </c>
     </row>
     <row r="26">
@@ -8952,19 +8952,19 @@
         <v>9348</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4202</v>
+        <v>4124</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18376</v>
+        <v>18630</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04425703725253894</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01989249410830264</v>
+        <v>0.0195263490795237</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08700067082251983</v>
+        <v>0.08820349822199197</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -8973,19 +8973,19 @@
         <v>2642</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7060</v>
+        <v>7539</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01208486790802681</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003947514005041747</v>
+        <v>0.003956928442248523</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03229650928826761</v>
+        <v>0.03448769985063837</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>11</v>
@@ -8994,19 +8994,19 @@
         <v>11990</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5965</v>
+        <v>6213</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>20602</v>
+        <v>21041</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0278952710476326</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01387785772239557</v>
+        <v>0.01445523976780129</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04793398477665581</v>
+        <v>0.04895503281844341</v>
       </c>
     </row>
     <row r="27">
@@ -9023,19 +9023,19 @@
         <v>198583</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>189210</v>
+        <v>187256</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>204866</v>
+        <v>204374</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.940167765825542</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8957917598850317</v>
+        <v>0.8865423916076545</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9699130045915275</v>
+        <v>0.9675845926835843</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>218</v>
@@ -9044,19 +9044,19 @@
         <v>214119</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>209022</v>
+        <v>208542</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>216869</v>
+        <v>216846</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9795614585046681</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9562424878685251</v>
+        <v>0.9540479190685562</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9921381885936067</v>
+        <v>0.9920366312813109</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>419</v>
@@ -9065,19 +9065,19 @@
         <v>412703</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>402479</v>
+        <v>402667</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>420046</v>
+        <v>420014</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9602021745302114</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.936416863311008</v>
+        <v>0.9368535859963923</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9772871479767948</v>
+        <v>0.977212760612524</v>
       </c>
     </row>
     <row r="28">
@@ -9216,19 +9216,19 @@
         <v>5671</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1964</v>
+        <v>2063</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12067</v>
+        <v>11898</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02155185797736375</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.00746248536307611</v>
+        <v>0.007840743347815361</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04586146370891724</v>
+        <v>0.04521910668596322</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>5</v>
@@ -9237,19 +9237,19 @@
         <v>5366</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>12737</v>
+        <v>12293</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0196476055717422</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.007415031252126211</v>
+        <v>0.007432411226803434</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04663640733715124</v>
+        <v>0.04501087409275391</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>11</v>
@@ -9258,19 +9258,19 @@
         <v>11037</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6007</v>
+        <v>5735</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>19105</v>
+        <v>18756</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02058199031232961</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01120283216740312</v>
+        <v>0.0106939833470732</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03562812711529506</v>
+        <v>0.03497665017308503</v>
       </c>
     </row>
     <row r="31">
@@ -9287,19 +9287,19 @@
         <v>13101</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6391</v>
+        <v>6842</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>22298</v>
+        <v>23096</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04979107893877693</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02429041268192696</v>
+        <v>0.02600338711776862</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08474177098067329</v>
+        <v>0.08777511491828113</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -9308,19 +9308,19 @@
         <v>3805</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1025</v>
+        <v>941</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>10387</v>
+        <v>8793</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01393008469869979</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.003751968704116693</v>
+        <v>0.003444288737443424</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03803119045350495</v>
+        <v>0.03219341897436186</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>15</v>
@@ -9329,19 +9329,19 @@
         <v>16906</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10318</v>
+        <v>9537</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>28047</v>
+        <v>26847</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03152647354993725</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01924102606150867</v>
+        <v>0.0177843533786489</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05230319361166442</v>
+        <v>0.05006611335296283</v>
       </c>
     </row>
     <row r="32">
@@ -9358,19 +9358,19 @@
         <v>244351</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>234124</v>
+        <v>232677</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>251839</v>
+        <v>251403</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9286570630838593</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.88978911189249</v>
+        <v>0.8842900144361259</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.95711366630629</v>
+        <v>0.9554589812311429</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>254</v>
@@ -9379,19 +9379,19 @@
         <v>263944</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>256103</v>
+        <v>255965</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>268440</v>
+        <v>268926</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.966422309729558</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.937712884636382</v>
+        <v>0.9372060147269211</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9828841503148448</v>
+        <v>0.9846618430295319</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>496</v>
@@ -9400,19 +9400,19 @@
         <v>508295</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>495825</v>
+        <v>495962</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>517395</v>
+        <v>517419</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9478915361377331</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9246356620964384</v>
+        <v>0.924891971117891</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.964860469186468</v>
+        <v>0.9649055311410066</v>
       </c>
     </row>
     <row r="33">
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5294</v>
+        <v>6217</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.001614854804371238</v>
@@ -9516,7 +9516,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.008100767200274703</v>
+        <v>0.009512006323428537</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -9541,7 +9541,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5278</v>
+        <v>5309</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0007875885387474182</v>
@@ -9550,7 +9550,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.003938721548195238</v>
+        <v>0.003961954938925905</v>
       </c>
     </row>
     <row r="35">
@@ -9567,19 +9567,19 @@
         <v>26910</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>17094</v>
+        <v>17906</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>38197</v>
+        <v>39624</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04117528114739553</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02615570999362332</v>
+        <v>0.02739810573089016</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05844576121456196</v>
+        <v>0.06062986955780661</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>33</v>
@@ -9588,19 +9588,19 @@
         <v>34622</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>24452</v>
+        <v>23691</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>47412</v>
+        <v>48316</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05043452182763961</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03562051286794393</v>
+        <v>0.03451171897194701</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06906706067301198</v>
+        <v>0.07038408034296724</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>57</v>
@@ -9609,19 +9609,19 @@
         <v>61532</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>47640</v>
+        <v>47123</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>78822</v>
+        <v>78053</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04591865339319947</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03555161099920404</v>
+        <v>0.03516628526455641</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05882223467899427</v>
+        <v>0.05824792530469901</v>
       </c>
     </row>
     <row r="36">
@@ -9638,19 +9638,19 @@
         <v>43265</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>31604</v>
+        <v>31443</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>59746</v>
+        <v>60202</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06620113431954047</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04835833870462831</v>
+        <v>0.04811159834665666</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.09141835286524487</v>
+        <v>0.09211663919686677</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>32</v>
@@ -9659,19 +9659,19 @@
         <v>33172</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>23133</v>
+        <v>22870</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>44899</v>
+        <v>44932</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04832270379561307</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03369812431875242</v>
+        <v>0.03331586035102364</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.06540637733830157</v>
+        <v>0.0654537186285718</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>68</v>
@@ -9680,19 +9680,19 @@
         <v>76437</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>60711</v>
+        <v>59159</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>96103</v>
+        <v>94036</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.05704227841824904</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.04530652111200762</v>
+        <v>0.04414850447625793</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07171792534399721</v>
+        <v>0.07017525546524266</v>
       </c>
     </row>
     <row r="37">
@@ -9709,19 +9709,19 @@
         <v>582313</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>564394</v>
+        <v>562793</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>597397</v>
+        <v>597544</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.8910087297286927</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.863590906446395</v>
+        <v>0.8611418553458533</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9140899349330014</v>
+        <v>0.9143147388759199</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>577</v>
@@ -9730,19 +9730,19 @@
         <v>618674</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>603082</v>
+        <v>599734</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>633678</v>
+        <v>632738</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9012427743767473</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8785295226407573</v>
+        <v>0.8736518191727723</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9230994884535149</v>
+        <v>0.9217291828334421</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1094</v>
@@ -9751,19 +9751,19 @@
         <v>1200987</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1176842</v>
+        <v>1178763</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1223132</v>
+        <v>1223452</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.8962514796498041</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.8782329641712927</v>
+        <v>0.8796668362322559</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9127776366362581</v>
+        <v>0.913016231761028</v>
       </c>
     </row>
     <row r="38">
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>7437</v>
+        <v>7381</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.003130850791323135</v>
@@ -9867,7 +9867,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.009552398211558014</v>
+        <v>0.009479813961602138</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>8075</v>
+        <v>8950</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.001519007442570119</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.005031709735677208</v>
+        <v>0.005577001257550616</v>
       </c>
     </row>
     <row r="40">
@@ -9918,19 +9918,19 @@
         <v>33733</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>24584</v>
+        <v>23117</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>47744</v>
+        <v>46576</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.04332676412715951</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0315756327998576</v>
+        <v>0.02969117197481765</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06132164321956023</v>
+        <v>0.05982127654168482</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>51</v>
@@ -9939,19 +9939,19 @@
         <v>56529</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>43060</v>
+        <v>42905</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>72795</v>
+        <v>74323</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.06842293814257146</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.05212053516352128</v>
+        <v>0.0519327100875388</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.08811207290033543</v>
+        <v>0.08996173453888436</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>82</v>
@@ -9960,19 +9960,19 @@
         <v>90262</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>73623</v>
+        <v>74690</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>109936</v>
+        <v>113313</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.05624692668424992</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.04587791282848196</v>
+        <v>0.04654337529756802</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.06850641437954884</v>
+        <v>0.07061115455102659</v>
       </c>
     </row>
     <row r="41">
@@ -9989,19 +9989,19 @@
         <v>35159</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>24985</v>
+        <v>24872</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>47828</v>
+        <v>47757</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.04515783974878882</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03209032436530673</v>
+        <v>0.03194464065239128</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.06142964274705405</v>
+        <v>0.06133879708771457</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>33</v>
@@ -10010,19 +10010,19 @@
         <v>38016</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>26500</v>
+        <v>26124</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>51866</v>
+        <v>51845</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.04601449891586359</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03207563101575177</v>
+        <v>0.03162060645432285</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.06277906214842537</v>
+        <v>0.06275326472652526</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>66</v>
@@ -10031,19 +10031,19 @@
         <v>73175</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>56916</v>
+        <v>57172</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>92149</v>
+        <v>93239</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.04559887014998983</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0354673538582566</v>
+        <v>0.03562662869295209</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.05742255277625069</v>
+        <v>0.05810214274982297</v>
       </c>
     </row>
     <row r="42">
@@ -10060,19 +10060,19 @@
         <v>707253</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>688216</v>
+        <v>690227</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>721446</v>
+        <v>722418</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9083845453327285</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.8839335689470362</v>
+        <v>0.8865166349177468</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9266146184375063</v>
+        <v>0.9278628498241908</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>671</v>
@@ -10081,19 +10081,19 @@
         <v>731623</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>711170</v>
+        <v>710935</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>750391</v>
+        <v>749821</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.885562562941565</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.860805994742903</v>
+        <v>0.8605224476867014</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9082794426052401</v>
+        <v>0.9075901822967086</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1355</v>
@@ -10102,19 +10102,19 @@
         <v>1438875</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1413012</v>
+        <v>1410555</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1462874</v>
+        <v>1460909</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.8966351957231902</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.8805186757543242</v>
+        <v>0.8789874876077183</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9115899054060709</v>
+        <v>0.910365777445605</v>
       </c>
     </row>
     <row r="43">
@@ -10206,19 +10206,19 @@
         <v>6767</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2355</v>
+        <v>2444</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>15549</v>
+        <v>16815</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.001996612670066702</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0006948723279783371</v>
+        <v>0.0007210143221238718</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.004587589812335854</v>
+        <v>0.004960928970932939</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>3</v>
@@ -10227,19 +10227,19 @@
         <v>3144</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>9302</v>
+        <v>9591</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.000888577175965079</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.000239454274910001</v>
+        <v>0.0002404616721481113</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.002628525092160147</v>
+        <v>0.002710243421809143</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>8</v>
@@ -10248,19 +10248,19 @@
         <v>9912</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>4845</v>
+        <v>4671</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>20233</v>
+        <v>19592</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.001430656041243952</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0006992570683288394</v>
+        <v>0.0006742385498783047</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.002920396423864796</v>
+        <v>0.0028278894863282</v>
       </c>
     </row>
     <row r="45">
@@ -10277,19 +10277,19 @@
         <v>122231</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>101319</v>
+        <v>101144</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>146020</v>
+        <v>145541</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.03606232322410104</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.02989264323815752</v>
+        <v>0.02984100335406962</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.04308100038530849</v>
+        <v>0.04293953625114672</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>139</v>
@@ -10298,19 +10298,19 @@
         <v>152981</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>127432</v>
+        <v>129388</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>178728</v>
+        <v>179622</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.04323031029493361</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.03601069197257735</v>
+        <v>0.03656328593503212</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.05050615515471463</v>
+        <v>0.05075870088730332</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>251</v>
@@ -10319,19 +10319,19 @@
         <v>275212</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>238717</v>
+        <v>242583</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>307176</v>
+        <v>309386</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.03972355052200689</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.03445598614229694</v>
+        <v>0.03501396697984251</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.0443372628375519</v>
+        <v>0.04465625449228621</v>
       </c>
     </row>
     <row r="46">
@@ -10348,19 +10348,19 @@
         <v>156345</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>131397</v>
+        <v>130345</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>183752</v>
+        <v>183666</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.04612722458709606</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.03876664866633708</v>
+        <v>0.03845614721183951</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.05421316376692292</v>
+        <v>0.05418784373385582</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>113</v>
@@ -10369,19 +10369,19 @@
         <v>121185</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>101536</v>
+        <v>99634</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>145061</v>
+        <v>144579</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.03424518408138488</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02869275645081766</v>
+        <v>0.02815515335005699</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.04099225739977028</v>
+        <v>0.0408561699245318</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>256</v>
@@ -10390,19 +10390,19 @@
         <v>277530</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>246560</v>
+        <v>245140</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>316445</v>
+        <v>311237</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.04005817749975527</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.03558805735628768</v>
+        <v>0.03538298703638423</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.04567502542980434</v>
+        <v>0.04492337958173689</v>
       </c>
     </row>
     <row r="47">
@@ -10419,19 +10419,19 @@
         <v>3104093</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3068952</v>
+        <v>3068792</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3136625</v>
+        <v>3136233</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9158138395187362</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.9054459620704957</v>
+        <v>0.9053986537501236</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.925411889386703</v>
+        <v>0.9252962802810643</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>3078</v>
@@ -10440,19 +10440,19 @@
         <v>3261427</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>3227087</v>
+        <v>3224535</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>3292964</v>
+        <v>3293005</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9216359284477165</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.9119318962150401</v>
+        <v>0.9112107503439639</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9305479586439583</v>
+        <v>0.9305595370775144</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>6045</v>
@@ -10461,19 +10461,19 @@
         <v>6365521</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>6313429</v>
+        <v>6318364</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>6413567</v>
+        <v>6411451</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9187876159369939</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9112686999325161</v>
+        <v>0.9119809692344395</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9257224620478905</v>
+        <v>0.9254169730859613</v>
       </c>
     </row>
     <row r="48">
@@ -10856,19 +10856,19 @@
         <v>32964</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22882</v>
+        <v>22858</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45991</v>
+        <v>45663</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1033857344319262</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07176388724839441</v>
+        <v>0.07168944874351219</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1442435357600876</v>
+        <v>0.1432145056666979</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>68</v>
@@ -10877,19 +10877,19 @@
         <v>41095</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>31929</v>
+        <v>32809</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>51375</v>
+        <v>51482</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1300220045384472</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.101022854597165</v>
+        <v>0.1038057988814989</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.162549215881656</v>
+        <v>0.1628858869458892</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>102</v>
@@ -10898,19 +10898,19 @@
         <v>74059</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>60320</v>
+        <v>60519</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>89824</v>
+        <v>90200</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1166454573879914</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09500670658003743</v>
+        <v>0.09531895669717078</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1414767183712948</v>
+        <v>0.1420689616824422</v>
       </c>
     </row>
     <row r="6">
@@ -10927,19 +10927,19 @@
         <v>9383</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4665</v>
+        <v>5107</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16832</v>
+        <v>17223</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02942760102742262</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01463130353507246</v>
+        <v>0.01601698092133996</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05279204221713923</v>
+        <v>0.05401625101342484</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -10948,19 +10948,19 @@
         <v>8788</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5434</v>
+        <v>5559</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13301</v>
+        <v>13616</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02780385710385968</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01719262756903385</v>
+        <v>0.01758731696313518</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04208491718064965</v>
+        <v>0.04308086807779275</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>29</v>
@@ -10969,19 +10969,19 @@
         <v>18171</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11972</v>
+        <v>12170</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>25655</v>
+        <v>25879</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02861928986028334</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01885557307398585</v>
+        <v>0.01916794433928999</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04040753217216136</v>
+        <v>0.04076020720924874</v>
       </c>
     </row>
     <row r="7">
@@ -10998,19 +10998,19 @@
         <v>276498</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>262451</v>
+        <v>263240</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>288070</v>
+        <v>288614</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8671866645406511</v>
+        <v>0.8671866645406513</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8231318685860095</v>
+        <v>0.8256058440656875</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9034809442169919</v>
+        <v>0.9051871282758699</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>452</v>
@@ -11019,19 +11019,19 @@
         <v>266178</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>255087</v>
+        <v>255452</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>276036</v>
+        <v>275009</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8421741383576931</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.807080501622751</v>
+        <v>0.8082377687515298</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8733632305479281</v>
+        <v>0.8701141639050651</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>738</v>
@@ -11040,19 +11040,19 @@
         <v>542677</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>525872</v>
+        <v>524876</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>557728</v>
+        <v>557424</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8547352527517252</v>
+        <v>0.8547352527517255</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8282668924407837</v>
+        <v>0.8266986452676498</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8784411202193704</v>
+        <v>0.8779628909411745</v>
       </c>
     </row>
     <row r="8">
@@ -11191,19 +11191,19 @@
         <v>36740</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25917</v>
+        <v>24134</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53023</v>
+        <v>52877</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06923556845890304</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04884085268940729</v>
+        <v>0.04548059526226923</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09992056873533946</v>
+        <v>0.09964619429694553</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -11212,19 +11212,19 @@
         <v>32849</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23765</v>
+        <v>24219</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42933</v>
+        <v>43627</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06010873697192302</v>
+        <v>0.060108736971923</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04348573995671121</v>
+        <v>0.04431786895565486</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07856004422456986</v>
+        <v>0.07983128004214343</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>71</v>
@@ -11233,19 +11233,19 @@
         <v>69589</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>55448</v>
+        <v>53797</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87298</v>
+        <v>87684</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06460501389375398</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05147665185321722</v>
+        <v>0.04994469352346739</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08104559365417732</v>
+        <v>0.08140460334284831</v>
       </c>
     </row>
     <row r="11">
@@ -11262,19 +11262,19 @@
         <v>17431</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9258</v>
+        <v>9576</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>29964</v>
+        <v>30251</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03284785602053776</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01744654316695552</v>
+        <v>0.01804524168342207</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05646636680395497</v>
+        <v>0.05700837435013439</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>20</v>
@@ -11283,19 +11283,19 @@
         <v>13924</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8840</v>
+        <v>8648</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21646</v>
+        <v>21729</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02547852015611161</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01617548940027429</v>
+        <v>0.01582388352129584</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03960856708775762</v>
+        <v>0.03976119022143923</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>33</v>
@@ -11304,19 +11304,19 @@
         <v>31354</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>21830</v>
+        <v>20417</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>46251</v>
+        <v>44792</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02910897776056163</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02026696143566239</v>
+        <v>0.0189552552069795</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04293883650707526</v>
+        <v>0.04158457977229711</v>
       </c>
     </row>
     <row r="12">
@@ -11333,19 +11333,19 @@
         <v>476477</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>458402</v>
+        <v>457673</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>490013</v>
+        <v>491926</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8979165755205591</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8638542301820312</v>
+        <v>0.862480318659428</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.923426227482924</v>
+        <v>0.9270312649886793</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>654</v>
@@ -11354,19 +11354,19 @@
         <v>499721</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>487212</v>
+        <v>487042</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>510375</v>
+        <v>509667</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.9144127428719654</v>
+        <v>0.9144127428719653</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8915227248381046</v>
+        <v>0.8912112822400188</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9339074841883714</v>
+        <v>0.9326128918068071</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>995</v>
@@ -11375,19 +11375,19 @@
         <v>976198</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>956001</v>
+        <v>952787</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>995207</v>
+        <v>995325</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9062860083456845</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8875357788514736</v>
+        <v>0.8845514915838525</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9239333597154553</v>
+        <v>0.9240433001108154</v>
       </c>
     </row>
     <row r="13">
@@ -11526,19 +11526,19 @@
         <v>20990</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13660</v>
+        <v>13948</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>29942</v>
+        <v>29825</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06642414338557391</v>
+        <v>0.0664241433855739</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04322963306363595</v>
+        <v>0.04413932332801659</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0947552318332564</v>
+        <v>0.09438623461768936</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>42</v>
@@ -11547,19 +11547,19 @@
         <v>28347</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>21138</v>
+        <v>21068</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>38657</v>
+        <v>37982</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.07954215229404805</v>
+        <v>0.07954215229404807</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05931164047893896</v>
+        <v>0.05911636319178273</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1084696152146853</v>
+        <v>0.1065762986143369</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>69</v>
@@ -11568,19 +11568,19 @@
         <v>49337</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>38506</v>
+        <v>39052</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>62333</v>
+        <v>61194</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.07337713123497351</v>
+        <v>0.0733771312349735</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05726792040484852</v>
+        <v>0.05808032893903758</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.09270577088483019</v>
+        <v>0.09101199082993044</v>
       </c>
     </row>
     <row r="16">
@@ -11597,19 +11597,19 @@
         <v>9808</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4660</v>
+        <v>4391</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18081</v>
+        <v>18307</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03103745043100166</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01474578090526629</v>
+        <v>0.01389641251581289</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0572182363680686</v>
+        <v>0.05793622253719924</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -11618,19 +11618,19 @@
         <v>4833</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2239</v>
+        <v>2316</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9145</v>
+        <v>9136</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01356251455159249</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006281590580750334</v>
+        <v>0.00649892076575008</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02565934733866295</v>
+        <v>0.02563554775416767</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -11639,19 +11639,19 @@
         <v>14641</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8791</v>
+        <v>8960</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23162</v>
+        <v>24492</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02177514410949286</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01307514380211267</v>
+        <v>0.01332656948673668</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03444802307549005</v>
+        <v>0.03642661563640259</v>
       </c>
     </row>
     <row r="17">
@@ -11668,19 +11668,19 @@
         <v>285196</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>273814</v>
+        <v>273384</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>294758</v>
+        <v>294273</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9025384061834245</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8665198354183401</v>
+        <v>0.8651599561679928</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9327981309372597</v>
+        <v>0.93126296325249</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>486</v>
@@ -11689,19 +11689,19 @@
         <v>323200</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>312307</v>
+        <v>312609</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>330830</v>
+        <v>331332</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9068953331543596</v>
+        <v>0.9068953331543594</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8763283039341809</v>
+        <v>0.8771756158422431</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.928305094458315</v>
+        <v>0.9297115009457564</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>810</v>
@@ -11710,19 +11710,19 @@
         <v>608397</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>593473</v>
+        <v>593729</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>621854</v>
+        <v>620655</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9048477246555338</v>
+        <v>0.9048477246555336</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8826522627537817</v>
+        <v>0.8830327393372958</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.924861746140677</v>
+        <v>0.9230780064263062</v>
       </c>
     </row>
     <row r="18">
@@ -11861,19 +11861,19 @@
         <v>48196</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>34479</v>
+        <v>32830</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>69123</v>
+        <v>67372</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1291625720856423</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09240208493494742</v>
+        <v>0.08798159468334907</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1852430341739384</v>
+        <v>0.1805515948379761</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>54</v>
@@ -11882,19 +11882,19 @@
         <v>37907</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27907</v>
+        <v>28694</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>49434</v>
+        <v>49314</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.08983506178389271</v>
+        <v>0.08983506178389272</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06613630466642022</v>
+        <v>0.06800184338387573</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1171539919929839</v>
+        <v>0.116868328520577</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>89</v>
@@ -11903,19 +11903,19 @@
         <v>86103</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>69592</v>
+        <v>68590</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>107424</v>
+        <v>108639</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1082915456154372</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08752552691360987</v>
+        <v>0.08626527456812359</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1351058018764871</v>
+        <v>0.1366339219688691</v>
       </c>
     </row>
     <row r="21">
@@ -11932,19 +11932,19 @@
         <v>22086</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13422</v>
+        <v>13917</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>33535</v>
+        <v>33886</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.05918885025904292</v>
+        <v>0.05918885025904291</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03597056658239327</v>
+        <v>0.03729669770769862</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08987015181199375</v>
+        <v>0.09081287654616478</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>24</v>
@@ -11953,19 +11953,19 @@
         <v>15681</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>10239</v>
+        <v>10097</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>23602</v>
+        <v>23574</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03716306871326303</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02426460494685697</v>
+        <v>0.02392873273197502</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05593357367827406</v>
+        <v>0.0558688511029696</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>46</v>
@@ -11974,19 +11974,19 @@
         <v>37767</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>27551</v>
+        <v>27673</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>50841</v>
+        <v>53074</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.04749981461600922</v>
+        <v>0.04749981461600921</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03465024944093866</v>
+        <v>0.03480438914370452</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06394258896779698</v>
+        <v>0.06675064145548613</v>
       </c>
     </row>
     <row r="22">
@@ -12003,19 +12003,19 @@
         <v>302863</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>282590</v>
+        <v>281179</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>320918</v>
+        <v>320357</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.811648577655315</v>
+        <v>0.8116485776553147</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7573201004693376</v>
+        <v>0.7535383564919266</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8600369067851812</v>
+        <v>0.8585317564821268</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>521</v>
@@ -12024,19 +12024,19 @@
         <v>368373</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>354449</v>
+        <v>353203</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>379488</v>
+        <v>378869</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8730018695028443</v>
+        <v>0.8730018695028444</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8400035405922086</v>
+        <v>0.8370519795041423</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8993447216477006</v>
+        <v>0.8978767223151187</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>756</v>
@@ -12045,19 +12045,19 @@
         <v>671236</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>645260</v>
+        <v>646792</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>690188</v>
+        <v>691746</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8442086397685536</v>
+        <v>0.8442086397685534</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8115382192121243</v>
+        <v>0.8134649616101765</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8680445608360486</v>
+        <v>0.8700032414419885</v>
       </c>
     </row>
     <row r="23">
@@ -12165,7 +12165,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2241</v>
+        <v>2412</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.001926170533688079</v>
@@ -12174,7 +12174,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.009788100879119225</v>
+        <v>0.01053717824348222</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -12186,7 +12186,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2229</v>
+        <v>2212</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001014616350797594</v>
@@ -12195,7 +12195,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.005129227511584251</v>
+        <v>0.005090649386441574</v>
       </c>
     </row>
     <row r="25">
@@ -12212,19 +12212,19 @@
         <v>13572</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8752</v>
+        <v>8372</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20373</v>
+        <v>20944</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06599059158988284</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04255398709066333</v>
+        <v>0.04070909550079471</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09906064933176291</v>
+        <v>0.1018332345988478</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>37</v>
@@ -12233,19 +12233,19 @@
         <v>16575</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11930</v>
+        <v>11819</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23586</v>
+        <v>21913</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0724046938910315</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05211288833660388</v>
+        <v>0.05163157135326354</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1030333306755376</v>
+        <v>0.0957242387302866</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>57</v>
@@ -12254,19 +12254,19 @@
         <v>30147</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>23284</v>
+        <v>23869</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>38477</v>
+        <v>39843</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06936924003072113</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05357697897496574</v>
+        <v>0.05492396910003997</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.088536836995498</v>
+        <v>0.09168113097126872</v>
       </c>
     </row>
     <row r="26">
@@ -12283,19 +12283,19 @@
         <v>6591</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3425</v>
+        <v>3257</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11785</v>
+        <v>11555</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03204887147205814</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01665305842902664</v>
+        <v>0.01583800678422913</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05730412511485006</v>
+        <v>0.05618601804356355</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -12304,19 +12304,19 @@
         <v>4903</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2595</v>
+        <v>2409</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8307</v>
+        <v>7873</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02142004804518268</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01133504641064168</v>
+        <v>0.01052231677667318</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03628667534472564</v>
+        <v>0.03439012151976591</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>22</v>
@@ -12325,19 +12325,19 @@
         <v>11495</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7236</v>
+        <v>7107</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>16980</v>
+        <v>17547</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02645010550090622</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01665017018086495</v>
+        <v>0.01635380753914495</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03907215129237571</v>
+        <v>0.04037609933729932</v>
       </c>
     </row>
     <row r="27">
@@ -12354,19 +12354,19 @@
         <v>185502</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>176617</v>
+        <v>176964</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>191676</v>
+        <v>191693</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.901960536938059</v>
+        <v>0.9019605369380591</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8587598927412744</v>
+        <v>0.8604457456823258</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9319800336219577</v>
+        <v>0.9320655485880395</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>445</v>
@@ -12375,19 +12375,19 @@
         <v>206999</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>200365</v>
+        <v>201197</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>212498</v>
+        <v>212260</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.9042490875300977</v>
+        <v>0.9042490875300978</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8752703063743035</v>
+        <v>0.8789033812562793</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9282734006970113</v>
+        <v>0.9272322199681833</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>694</v>
@@ -12396,19 +12396,19 @@
         <v>392500</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>382782</v>
+        <v>382708</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>400926</v>
+        <v>400719</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.903166038117575</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8808043232761013</v>
+        <v>0.8806338850750168</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9225547939356982</v>
+        <v>0.922079927729795</v>
       </c>
     </row>
     <row r="28">
@@ -12547,19 +12547,19 @@
         <v>20126</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12935</v>
+        <v>12925</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>28535</v>
+        <v>28969</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07434434169622081</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04778310715952433</v>
+        <v>0.04774438396418475</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1054090989716524</v>
+        <v>0.1070114768498079</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>32</v>
@@ -12568,19 +12568,19 @@
         <v>21209</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>14800</v>
+        <v>14364</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>29110</v>
+        <v>29052</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.08041491004195532</v>
+        <v>0.08041491004195528</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05611542813899151</v>
+        <v>0.05446106661795798</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1103705147410403</v>
+        <v>0.1101516415665963</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>57</v>
@@ -12589,19 +12589,19 @@
         <v>41335</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>30590</v>
+        <v>32036</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>52158</v>
+        <v>53772</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07734011752264512</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05723626103592346</v>
+        <v>0.05994048131140269</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09759147779956941</v>
+        <v>0.1006109684299542</v>
       </c>
     </row>
     <row r="31">
@@ -12618,19 +12618,19 @@
         <v>5710</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2996</v>
+        <v>3039</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>10177</v>
+        <v>9816</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02109439466482936</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01106827001051021</v>
+        <v>0.01122558328148552</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03759305797484657</v>
+        <v>0.03625998401489493</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>12</v>
@@ -12639,19 +12639,19 @@
         <v>6167</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3532</v>
+        <v>3521</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>10745</v>
+        <v>10819</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.0233829271880114</v>
+        <v>0.02338292718801139</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01339279105047603</v>
+        <v>0.01334843763355371</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04074082991998564</v>
+        <v>0.04101838882766864</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>23</v>
@@ -12660,19 +12660,19 @@
         <v>11878</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>7780</v>
+        <v>7837</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>17985</v>
+        <v>17351</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.02222376674672874</v>
+        <v>0.02222376674672873</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01455604195357444</v>
+        <v>0.01466329318949624</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0336502172183499</v>
+        <v>0.03246548281978932</v>
       </c>
     </row>
     <row r="32">
@@ -12689,19 +12689,19 @@
         <v>244871</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>235379</v>
+        <v>235636</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>252298</v>
+        <v>252465</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.9045612636389498</v>
+        <v>0.90456126363895</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8694981752257104</v>
+        <v>0.8704475113900597</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9319952371751595</v>
+        <v>0.9326133078626718</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>416</v>
@@ -12710,19 +12710,19 @@
         <v>236373</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>227583</v>
+        <v>228044</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>243682</v>
+        <v>243803</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.8962021627700334</v>
+        <v>0.8962021627700333</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8628748412042173</v>
+        <v>0.8646200269724713</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9239114429865549</v>
+        <v>0.9243732152113919</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>751</v>
@@ -12731,19 +12731,19 @@
         <v>481244</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>469739</v>
+        <v>468490</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>491249</v>
+        <v>491075</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.9004361157306261</v>
+        <v>0.9004361157306262</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8789095101850077</v>
+        <v>0.8765723677271988</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9191552994226092</v>
+        <v>0.9188293201354026</v>
       </c>
     </row>
     <row r="33">
@@ -12838,7 +12838,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5317</v>
+        <v>5011</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.001463086225598835</v>
@@ -12847,7 +12847,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.007388284383271624</v>
+        <v>0.006963352283695067</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -12859,16 +12859,16 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4237</v>
+        <v>3549</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.0009188289549391113</v>
+        <v>0.0009188289549391114</v>
       </c>
       <c r="O34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.005495055216100581</v>
+        <v>0.004603640270733612</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6974</v>
+        <v>5919</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.001181591918695462</v>
@@ -12889,7 +12889,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.004678392516195535</v>
+        <v>0.00397066533205151</v>
       </c>
     </row>
     <row r="35">
@@ -12906,19 +12906,19 @@
         <v>138212</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>115672</v>
+        <v>116721</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>163416</v>
+        <v>163793</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1920450125089575</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.160725970539791</v>
+        <v>0.1621825094717391</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2270652406882609</v>
+        <v>0.2275895766184065</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>202</v>
@@ -12927,19 +12927,19 @@
         <v>162033</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>140675</v>
+        <v>139877</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>183588</v>
+        <v>183454</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2101615413012246</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1824599404608</v>
+        <v>0.1814255705417742</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2381198873626243</v>
+        <v>0.2379462075082657</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>319</v>
@@ -12948,19 +12948,19 @@
         <v>300245</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>271836</v>
+        <v>271091</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>337375</v>
+        <v>331856</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2014150292102367</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1823572648171518</v>
+        <v>0.1818578269677032</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2263228793319255</v>
+        <v>0.2226209239834473</v>
       </c>
     </row>
     <row r="36">
@@ -12977,19 +12977,19 @@
         <v>31985</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>20130</v>
+        <v>20121</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>51763</v>
+        <v>52389</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04444291256963907</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02797095241907207</v>
+        <v>0.02795773677445203</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.07192401803283813</v>
+        <v>0.07279376272285679</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>27</v>
@@ -12998,19 +12998,19 @@
         <v>22670</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>14904</v>
+        <v>15578</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>34177</v>
+        <v>34288</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02940397770365779</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01933148323683479</v>
+        <v>0.0202046401649696</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0443290899849438</v>
+        <v>0.04447213583023413</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>49</v>
@@ -13019,19 +13019,19 @@
         <v>54655</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>39052</v>
+        <v>40264</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>75270</v>
+        <v>74691</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03666465259061689</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02619715751595567</v>
+        <v>0.02701056337253909</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0504936208978226</v>
+        <v>0.05010550785397672</v>
       </c>
     </row>
     <row r="37">
@@ -13048,19 +13048,19 @@
         <v>548437</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>522862</v>
+        <v>520111</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>575755</v>
+        <v>571702</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.7620489886958047</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.7265124111252</v>
+        <v>0.7226902398686019</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8000077121793128</v>
+        <v>0.7943759012563134</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>729</v>
@@ -13069,19 +13069,19 @@
         <v>585580</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>559820</v>
+        <v>563091</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>607086</v>
+        <v>606926</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.7595156520401783</v>
+        <v>0.7595156520401785</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.7261047982310932</v>
+        <v>0.7303471710674116</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.7874105347877095</v>
+        <v>0.7872021817828462</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1188</v>
@@ -13090,19 +13090,19 @@
         <v>1134016</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1098090</v>
+        <v>1096365</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1167575</v>
+        <v>1164688</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.7607387262804511</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.73663792593635</v>
+        <v>0.7354806028486014</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7832511649771169</v>
+        <v>0.7813141073653531</v>
       </c>
     </row>
     <row r="38">
@@ -13194,19 +13194,19 @@
         <v>3864</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>11457</v>
+        <v>11306</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.004842278234795988</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.001125942832715316</v>
+        <v>0.001132943714004481</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.01435644015503127</v>
+        <v>0.01416606434238589</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>7</v>
@@ -13215,19 +13215,19 @@
         <v>5510</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>2317</v>
+        <v>2233</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>10807</v>
+        <v>11270</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.006634241185153352</v>
+        <v>0.006634241185153353</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.00278938057721877</v>
+        <v>0.002688203510632588</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.01301051777581159</v>
+        <v>0.01356860085335843</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>10</v>
@@ -13236,19 +13236,19 @@
         <v>9375</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>4746</v>
+        <v>4650</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>18231</v>
+        <v>17465</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.005756159102637909</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.002914028205606275</v>
+        <v>0.002855255790039515</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.01119343604467845</v>
+        <v>0.01072357711109776</v>
       </c>
     </row>
     <row r="40">
@@ -13265,19 +13265,19 @@
         <v>35659</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>25150</v>
+        <v>24642</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>49340</v>
+        <v>50188</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.04468126849837996</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03151357519221716</v>
+        <v>0.03087689442027988</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06182398265367874</v>
+        <v>0.0628871538911647</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>63</v>
@@ -13286,19 +13286,19 @@
         <v>50492</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>38612</v>
+        <v>38134</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>63037</v>
+        <v>63785</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.06078875123912211</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.04648634255397466</v>
+        <v>0.04591107021629694</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.07589190636599667</v>
+        <v>0.07679364546600635</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>97</v>
@@ -13307,19 +13307,19 @@
         <v>86151</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>70434</v>
+        <v>67853</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>104458</v>
+        <v>105218</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.05289590279253352</v>
+        <v>0.05289590279253351</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.04324576823280896</v>
+        <v>0.04166111781709081</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.06413629059479864</v>
+        <v>0.0646028918076041</v>
       </c>
     </row>
     <row r="41">
@@ -13336,19 +13336,19 @@
         <v>26657</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>17675</v>
+        <v>17993</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>38142</v>
+        <v>39044</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.0334023171406515</v>
+        <v>0.03340231714065149</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02214759747045819</v>
+        <v>0.02254501505203367</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04779269106494047</v>
+        <v>0.04892310063108981</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>35</v>
@@ -13357,19 +13357,19 @@
         <v>26353</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>18879</v>
+        <v>18666</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>36909</v>
+        <v>36935</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.0317271273133045</v>
+        <v>0.03172712731330451</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02272941600248204</v>
+        <v>0.02247206586872948</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.04443624066170945</v>
+        <v>0.0444672291481409</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>62</v>
@@ -13378,19 +13378,19 @@
         <v>53010</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>40134</v>
+        <v>40913</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>68408</v>
+        <v>68220</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03254798924681278</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02464186601510136</v>
+        <v>0.02512020778157458</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04200213536046828</v>
+        <v>0.04188679148780004</v>
       </c>
     </row>
     <row r="42">
@@ -13407,19 +13407,19 @@
         <v>731891</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>714323</v>
+        <v>713789</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>747175</v>
+        <v>746472</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9170741361261726</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.8950602664194192</v>
+        <v>0.8943911867625122</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9362248473193006</v>
+        <v>0.9353446861784791</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>956</v>
@@ -13428,19 +13428,19 @@
         <v>748254</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>732891</v>
+        <v>732795</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>763481</v>
+        <v>763246</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.9008498802624201</v>
+        <v>0.9008498802624202</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.8823536143448011</v>
+        <v>0.8822378445633694</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9191824040834324</v>
+        <v>0.9188995999474298</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1654</v>
@@ -13449,19 +13449,19 @@
         <v>1480145</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1454412</v>
+        <v>1457747</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1500175</v>
+        <v>1504079</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9087999488580158</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.8930000199198002</v>
+        <v>0.8950477012999064</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.92109791013261</v>
+        <v>0.9234954273818297</v>
       </c>
     </row>
     <row r="43">
@@ -13553,19 +13553,19 @@
         <v>4917</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>11487</v>
+        <v>12962</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.001391956367994032</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0003284461166997379</v>
+        <v>0.000325695169496238</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.003251560035397403</v>
+        <v>0.003668976090901624</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>9</v>
@@ -13574,19 +13574,19 @@
         <v>6660</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>3260</v>
+        <v>3003</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>12981</v>
+        <v>12817</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.001783000455262253</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.0008729109337029065</v>
+        <v>0.0008038576167978983</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.003475399070888526</v>
+        <v>0.003431408622272224</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>13</v>
@@ -13595,19 +13595,19 @@
         <v>11577</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>6184</v>
+        <v>6044</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>21497</v>
+        <v>20770</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.001592923477362397</v>
+        <v>0.001592923477362398</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0008508683874120576</v>
+        <v>0.0008315601235331377</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.002957847634765635</v>
+        <v>0.00285775481517766</v>
       </c>
     </row>
     <row r="45">
@@ -13624,19 +13624,19 @@
         <v>346458</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>309617</v>
+        <v>306898</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>387119</v>
+        <v>390106</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.09807011529444903</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.08764159241437497</v>
+        <v>0.08687208256015291</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1095797820433328</v>
+        <v>0.1104252881558809</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>541</v>
@@ -13645,19 +13645,19 @@
         <v>390507</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>359096</v>
+        <v>361519</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>424372</v>
+        <v>427908</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1045486940563457</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.09613915781541785</v>
+        <v>0.09678792426880536</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1136152795117236</v>
+        <v>0.1145618996630344</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>861</v>
@@ -13666,19 +13666,19 @@
         <v>736965</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>686290</v>
+        <v>687370</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>789554</v>
+        <v>793765</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1013996151871315</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.09442724609569607</v>
+        <v>0.09457583715678379</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.108635376093873</v>
+        <v>0.1092147537039077</v>
       </c>
     </row>
     <row r="46">
@@ -13695,19 +13695,19 @@
         <v>129651</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>106260</v>
+        <v>108322</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>157020</v>
+        <v>155715</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.03669970105723599</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.03007855892288008</v>
+        <v>0.03066220956461914</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.04444674153067638</v>
+        <v>0.04407743301204065</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>156</v>
@@ -13716,19 +13716,19 @@
         <v>103320</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>87563</v>
+        <v>87907</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>119906</v>
+        <v>121424</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.0276614500664914</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02344282596896593</v>
+        <v>0.02353495521616312</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.03210193880420942</v>
+        <v>0.03250844485124111</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>281</v>
@@ -13737,19 +13737,19 @@
         <v>232971</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>204453</v>
+        <v>204929</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>267912</v>
+        <v>266257</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.03205472307522696</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02813091460237443</v>
+        <v>0.02819632230451949</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.03686218470160741</v>
+        <v>0.0366344858063352</v>
       </c>
     </row>
     <row r="47">
@@ -13766,19 +13766,19 @@
         <v>3051735</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3006500</v>
+        <v>3002670</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3095597</v>
+        <v>3098750</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.863838227280321</v>
+        <v>0.8638382272803211</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.8510338386567027</v>
+        <v>0.849949685457399</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.8762541312426015</v>
+        <v>0.8771466398698373</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>4659</v>
@@ -13787,19 +13787,19 @@
         <v>3234679</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>3195679</v>
+        <v>3196838</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>3266585</v>
+        <v>3269363</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.8660068554219005</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.8555653256016291</v>
+        <v>0.8558757860968524</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.8745489093478472</v>
+        <v>0.8752924595034827</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>7586</v>
@@ -13808,19 +13808,19 @@
         <v>6286414</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>6225606</v>
+        <v>6220140</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>6343953</v>
+        <v>6341118</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.8649527382602791</v>
+        <v>0.8649527382602792</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.8565860539873991</v>
+        <v>0.8558340533942992</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.8728695597132334</v>
+        <v>0.8724794735778953</v>
       </c>
     </row>
     <row r="48">
